--- a/doc/设备通讯协议（新）.xlsx
+++ b/doc/设备通讯协议（新）.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="5775"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="5775" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="0506整理" sheetId="4" r:id="rId1"/>
@@ -355,7 +355,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="213">
   <si>
     <t>序号</t>
   </si>
@@ -1223,12 +1223,18 @@
   <si>
     <t>准备好接板52 c2 04 18</t>
   </si>
+  <si>
+    <t>POWER线流程图</t>
+  </si>
+  <si>
+    <t>开始送板</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1417,6 +1423,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="26"/>
+      <color theme="1"/>
+      <name val="黑体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1528,7 +1541,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1636,6 +1649,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1665,34 +1696,49 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1701,19 +1747,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -11325,6 +11359,1651 @@
         <a:xfrm flipH="1" flipV="1">
           <a:off x="46412726" y="21116696"/>
           <a:ext cx="347671" cy="12180"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>20292</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>672702</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>160734</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="204" name="流程图: 过程 203"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11772899" y="3401667"/>
+          <a:ext cx="1215628" cy="473817"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2400"/>
+            <a:t>空闲</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>344365</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>14652</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>344365</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>431</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="205" name="流程图: 决策 204"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11488615" y="4634277"/>
+          <a:ext cx="1857375" cy="747779"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
+            <a:t>接板完成</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>683418</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>160734</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>2061</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>14652</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="206" name="直接箭头连接符 205"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="204" idx="2"/>
+          <a:endCxn id="205" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12370593" y="3875484"/>
+          <a:ext cx="13968" cy="758793"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>14495</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>16979</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>678655</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>160734</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="207" name="流程图: 过程 206"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11777870" y="6112979"/>
+          <a:ext cx="1216610" cy="524755"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2400"/>
+            <a:t>测试中</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>2061</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>431</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>4271</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>16979</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="210" name="直接箭头连接符 209"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="205" idx="2"/>
+          <a:endCxn id="207" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12384561" y="5382056"/>
+          <a:ext cx="2210" cy="730923"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>344216</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>7729</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>344215</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>164301</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="211" name="流程图: 决策 210"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13345841" y="7389604"/>
+          <a:ext cx="1857374" cy="704260"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>测试</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>NG</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>准备送板</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>4271</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>160734</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>1911</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>7729</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="212" name="直接箭头连接符 211"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="207" idx="2"/>
+          <a:endCxn id="211" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12386771" y="6637734"/>
+          <a:ext cx="1855015" cy="751870"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>691318</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>3502</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>886</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>34083</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="221" name="直接箭头连接符 220"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="10511593" y="8123565"/>
+          <a:ext cx="14418" cy="721143"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>8335</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>12718</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>676604</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>164224</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="222" name="椭圆 221"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9914335" y="10061593"/>
+          <a:ext cx="1220719" cy="1365944"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1500" b="1"/>
+            <a:t>送板指令</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1500" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>3685</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>3502</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>6336</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>34083</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="223" name="直接箭头连接符 222"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="10528810" y="9361815"/>
+          <a:ext cx="2651" cy="721143"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>680040</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>3502</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>2334</xdr:colOff>
+      <xdr:row>179</xdr:row>
+      <xdr:rowOff>34083</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="224" name="直接箭头连接符 223"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="10519365" y="11433502"/>
+          <a:ext cx="8094" cy="697331"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>686169</xdr:colOff>
+      <xdr:row>179</xdr:row>
+      <xdr:rowOff>16309</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>669972</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>160064</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="255" name="流程图: 过程 254"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9896844" y="12113059"/>
+          <a:ext cx="1241103" cy="500943"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2400"/>
+            <a:t>送板中</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>347671</xdr:colOff>
+      <xdr:row>186</xdr:row>
+      <xdr:rowOff>7086</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>347671</xdr:colOff>
+      <xdr:row>189</xdr:row>
+      <xdr:rowOff>162390</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="257" name="流程图: 决策 256"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9634546" y="13342086"/>
+          <a:ext cx="1857375" cy="702992"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
+            <a:t>送板完成</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>5367</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>158824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>11129</xdr:colOff>
+      <xdr:row>186</xdr:row>
+      <xdr:rowOff>7086</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="259" name="直接箭头连接符 258"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="257" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="10530492" y="12612762"/>
+          <a:ext cx="5762" cy="729324"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3949</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>18166</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>673551</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>159200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="260" name="流程图: 过程 259"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9909949" y="8828791"/>
+          <a:ext cx="1222052" cy="498222"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
+            <a:t>准备好送板</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>7478</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>5956</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>10129</xdr:colOff>
+      <xdr:row>194</xdr:row>
+      <xdr:rowOff>36538</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="286" name="直接箭头连接符 285"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="10532603" y="14079144"/>
+          <a:ext cx="2651" cy="721144"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>13606</xdr:colOff>
+      <xdr:row>194</xdr:row>
+      <xdr:rowOff>18764</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>682019</xdr:colOff>
+      <xdr:row>196</xdr:row>
+      <xdr:rowOff>162518</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="287" name="流程图: 过程 286"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9919606" y="14782514"/>
+          <a:ext cx="1211338" cy="500942"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2400"/>
+            <a:t>空闲</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>346597</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>17254</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>346596</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>2376</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="288" name="流程图: 决策 287"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9633472" y="7399129"/>
+          <a:ext cx="1857374" cy="723310"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>测试</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>OK</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>准备送板</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>3697</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>160734</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>3675</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>17254</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="290" name="直接箭头连接符 289"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="207" idx="2"/>
+          <a:endCxn id="288" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="10528822" y="6637734"/>
+          <a:ext cx="1857353" cy="761395"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>691318</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>3502</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>886</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>34083</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="291" name="直接箭头连接符 290"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="14226343" y="8123565"/>
+          <a:ext cx="14418" cy="721143"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>8335</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>12718</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>676604</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>164224</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="292" name="椭圆 291"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13629085" y="10061593"/>
+          <a:ext cx="1220719" cy="1365944"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1500" b="1"/>
+            <a:t>送板指令</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1500" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>3685</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>3502</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>6336</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>34083</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="293" name="直接箭头连接符 292"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="14243560" y="9361815"/>
+          <a:ext cx="2651" cy="721143"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>680040</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>3502</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>2334</xdr:colOff>
+      <xdr:row>179</xdr:row>
+      <xdr:rowOff>34083</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="295" name="直接箭头连接符 294"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="14234115" y="11433502"/>
+          <a:ext cx="8094" cy="697331"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>686169</xdr:colOff>
+      <xdr:row>179</xdr:row>
+      <xdr:rowOff>16309</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>669972</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>160064</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="296" name="流程图: 过程 295"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13611594" y="12113059"/>
+          <a:ext cx="1241103" cy="500943"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2400"/>
+            <a:t>送板中</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>347671</xdr:colOff>
+      <xdr:row>186</xdr:row>
+      <xdr:rowOff>7086</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>347671</xdr:colOff>
+      <xdr:row>189</xdr:row>
+      <xdr:rowOff>162390</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="297" name="流程图: 决策 296"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13349296" y="13342086"/>
+          <a:ext cx="1857375" cy="702992"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
+            <a:t>送板完成</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>5367</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>158824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>11129</xdr:colOff>
+      <xdr:row>186</xdr:row>
+      <xdr:rowOff>7086</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="299" name="直接箭头连接符 298"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="297" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="14245242" y="12612762"/>
+          <a:ext cx="5762" cy="729324"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>3949</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>18166</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>673551</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>159200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="300" name="流程图: 过程 299"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13624699" y="8828791"/>
+          <a:ext cx="1222052" cy="498222"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
+            <a:t>准备好送板</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>7478</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>5956</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>10129</xdr:colOff>
+      <xdr:row>194</xdr:row>
+      <xdr:rowOff>36538</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="301" name="直接箭头连接符 300"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="14247353" y="14079144"/>
+          <a:ext cx="2651" cy="721144"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>13606</xdr:colOff>
+      <xdr:row>194</xdr:row>
+      <xdr:rowOff>18764</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>682019</xdr:colOff>
+      <xdr:row>196</xdr:row>
+      <xdr:rowOff>162518</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="302" name="流程图: 过程 301"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13634356" y="14782514"/>
+          <a:ext cx="1211338" cy="500942"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2400"/>
+            <a:t>空闲</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>604345</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>6569</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>346597</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>9816</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="303" name="直接箭头连接符 302"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="288" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="9272095" y="7745632"/>
+          <a:ext cx="361377" cy="3247"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>344215</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>172983</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>74544</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="304" name="直接箭头连接符 303"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="211" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15203215" y="7745358"/>
+          <a:ext cx="349454" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -11642,7 +13321,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
@@ -11660,47 +13339,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="23.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="44" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
     </row>
     <row r="2" spans="1:8" ht="43.5" customHeight="1">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="45" t="s">
         <v>133</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
     </row>
     <row r="3" spans="1:8" ht="15.75">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42" t="s">
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
     </row>
     <row r="4" spans="1:8" ht="15.75">
-      <c r="A4" s="41"/>
+      <c r="A4" s="47"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -11710,7 +13389,7 @@
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="42"/>
+      <c r="E4" s="48"/>
       <c r="F4" s="1" t="s">
         <v>3</v>
       </c>
@@ -11734,7 +13413,7 @@
       <c r="D5" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E5" s="42"/>
+      <c r="E5" s="48"/>
       <c r="F5" s="2" t="s">
         <v>6</v>
       </c>
@@ -11756,7 +13435,7 @@
       <c r="D6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="42"/>
+      <c r="E6" s="48"/>
       <c r="F6" s="2" t="s">
         <v>20</v>
       </c>
@@ -11778,7 +13457,7 @@
       <c r="D7" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="E7" s="42"/>
+      <c r="E7" s="48"/>
       <c r="F7" s="2" t="s">
         <v>89</v>
       </c>
@@ -11796,7 +13475,7 @@
         <v>121</v>
       </c>
       <c r="D8" s="5"/>
-      <c r="E8" s="42"/>
+      <c r="E8" s="48"/>
       <c r="F8" s="2" t="s">
         <v>59</v>
       </c>
@@ -11816,7 +13495,7 @@
         <v>79</v>
       </c>
       <c r="D9" s="2"/>
-      <c r="E9" s="42"/>
+      <c r="E9" s="48"/>
       <c r="F9" s="2" t="s">
         <v>96</v>
       </c>
@@ -11836,7 +13515,7 @@
         <v>130</v>
       </c>
       <c r="D10" s="6"/>
-      <c r="E10" s="42"/>
+      <c r="E10" s="48"/>
       <c r="F10" s="2" t="s">
         <v>27</v>
       </c>
@@ -11856,7 +13535,7 @@
         <v>35</v>
       </c>
       <c r="D11" s="2"/>
-      <c r="E11" s="42"/>
+      <c r="E11" s="48"/>
       <c r="F11" s="27" t="s">
         <v>142</v>
       </c>
@@ -11877,14 +13556,14 @@
       <c r="D12" s="22" t="s">
         <v>205</v>
       </c>
-      <c r="E12" s="42"/>
+      <c r="E12" s="48"/>
       <c r="F12" s="19" t="s">
         <v>135</v>
       </c>
       <c r="G12" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="H12" s="40" t="s">
+      <c r="H12" s="46" t="s">
         <v>210</v>
       </c>
     </row>
@@ -11901,14 +13580,14 @@
       <c r="D13" s="22" t="s">
         <v>206</v>
       </c>
-      <c r="E13" s="42"/>
+      <c r="E13" s="48"/>
       <c r="F13" s="19" t="s">
         <v>134</v>
       </c>
       <c r="G13" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="H13" s="58"/>
+      <c r="H13" s="49"/>
     </row>
     <row r="14" spans="1:8" ht="15.75">
       <c r="A14" s="8">
@@ -11921,14 +13600,14 @@
         <v>128</v>
       </c>
       <c r="D14" s="2"/>
-      <c r="E14" s="42"/>
+      <c r="E14" s="48"/>
       <c r="F14" s="19" t="s">
         <v>120</v>
       </c>
       <c r="G14" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="H14" s="58"/>
+      <c r="H14" s="49"/>
     </row>
     <row r="15" spans="1:8" ht="15.75">
       <c r="A15" s="8">
@@ -11941,14 +13620,14 @@
         <v>127</v>
       </c>
       <c r="D15" s="2"/>
-      <c r="E15" s="42"/>
+      <c r="E15" s="48"/>
       <c r="F15" s="19" t="s">
         <v>119</v>
       </c>
       <c r="G15" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="H15" s="59"/>
+      <c r="H15" s="50"/>
     </row>
     <row r="16" spans="1:8" ht="15.75">
       <c r="A16" s="8">
@@ -11961,7 +13640,7 @@
         <v>129</v>
       </c>
       <c r="D16" s="2"/>
-      <c r="E16" s="42"/>
+      <c r="E16" s="48"/>
       <c r="F16" s="2" t="s">
         <v>91</v>
       </c>
@@ -11983,7 +13662,7 @@
       <c r="D17" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E17" s="42"/>
+      <c r="E17" s="48"/>
       <c r="F17" s="2" t="s">
         <v>53</v>
       </c>
@@ -11999,7 +13678,7 @@
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
-      <c r="E18" s="42"/>
+      <c r="E18" s="48"/>
       <c r="F18" s="2" t="s">
         <v>54</v>
       </c>
@@ -12015,7 +13694,7 @@
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
-      <c r="E19" s="42"/>
+      <c r="E19" s="48"/>
       <c r="F19" s="2" t="s">
         <v>140</v>
       </c>
@@ -12031,7 +13710,7 @@
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
-      <c r="E20" s="42"/>
+      <c r="E20" s="48"/>
       <c r="F20" s="2" t="s">
         <v>32</v>
       </c>
@@ -12047,7 +13726,7 @@
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
-      <c r="E21" s="42"/>
+      <c r="E21" s="48"/>
       <c r="F21" s="2" t="s">
         <v>33</v>
       </c>
@@ -12063,7 +13742,7 @@
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
-      <c r="E22" s="42"/>
+      <c r="E22" s="48"/>
       <c r="F22" s="2" t="s">
         <v>34</v>
       </c>
@@ -12079,7 +13758,7 @@
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
-      <c r="E23" s="42"/>
+      <c r="E23" s="48"/>
       <c r="F23" s="2" t="s">
         <v>57</v>
       </c>
@@ -12097,7 +13776,7 @@
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
-      <c r="E24" s="42"/>
+      <c r="E24" s="48"/>
       <c r="F24" s="2" t="s">
         <v>57</v>
       </c>
@@ -12113,7 +13792,7 @@
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
-      <c r="E25" s="42"/>
+      <c r="E25" s="48"/>
       <c r="F25" s="2" t="s">
         <v>57</v>
       </c>
@@ -12131,7 +13810,7 @@
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
-      <c r="E26" s="42"/>
+      <c r="E26" s="48"/>
       <c r="F26" s="2" t="s">
         <v>57</v>
       </c>
@@ -12149,7 +13828,7 @@
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="42"/>
+      <c r="E27" s="48"/>
       <c r="F27" s="22" t="s">
         <v>117</v>
       </c>
@@ -12165,22 +13844,22 @@
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
-      <c r="E28" s="42"/>
+      <c r="E28" s="48"/>
       <c r="F28" s="19"/>
       <c r="G28" s="19"/>
       <c r="H28" s="19"/>
     </row>
     <row r="29" spans="1:9" s="16" customFormat="1" ht="43.5" customHeight="1">
-      <c r="A29" s="37" t="s">
+      <c r="A29" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="B29" s="37"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="37"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="43"/>
     </row>
     <row r="30" spans="1:9" s="16" customFormat="1" ht="18.75">
       <c r="A30" s="4"/>
@@ -12196,18 +13875,18 @@
       <c r="A31" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="B31" s="34" t="s">
+      <c r="B31" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="C31" s="34"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="34"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
     </row>
     <row r="32" spans="1:9" ht="18.75">
-      <c r="B32" s="35" t="s">
+      <c r="B32" s="41" t="s">
         <v>10</v>
       </c>
       <c r="C32" s="18" t="s">
@@ -12233,7 +13912,7 @@
       </c>
     </row>
     <row r="33" spans="2:9" ht="18.75">
-      <c r="B33" s="36"/>
+      <c r="B33" s="42"/>
       <c r="C33" s="18" t="s">
         <v>84</v>
       </c>
@@ -12538,24 +14217,24 @@
       </c>
     </row>
     <row r="39" spans="1:6" s="24" customFormat="1" ht="108" customHeight="1">
-      <c r="A39" s="43" t="s">
+      <c r="A39" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="B39" s="43"/>
-      <c r="C39" s="43"/>
-      <c r="D39" s="43"/>
-      <c r="E39" s="43"/>
-      <c r="F39" s="43"/>
+      <c r="B39" s="51"/>
+      <c r="C39" s="51"/>
+      <c r="D39" s="51"/>
+      <c r="E39" s="51"/>
+      <c r="F39" s="51"/>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
         <v>107</v>
       </c>
-      <c r="C40" s="44" t="s">
+      <c r="C40" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="D40" s="44"/>
-      <c r="E40" s="44"/>
+      <c r="D40" s="52"/>
+      <c r="E40" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -12573,8 +14252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:CU212"/>
   <sheetViews>
-    <sheetView zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
-      <selection activeCell="AV80" sqref="AV80"/>
+    <sheetView tabSelected="1" topLeftCell="A119" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="O205" sqref="O205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12630,172 +14309,172 @@
       </c>
     </row>
     <row r="16" spans="3:90" ht="13.5" customHeight="1">
-      <c r="C16" s="48" t="s">
+      <c r="C16" s="56" t="s">
         <v>149</v>
       </c>
-      <c r="D16" s="44"/>
-      <c r="T16" s="48" t="s">
+      <c r="D16" s="52"/>
+      <c r="T16" s="56" t="s">
         <v>159</v>
       </c>
-      <c r="U16" s="48"/>
-      <c r="AJ16" s="48" t="s">
+      <c r="U16" s="56"/>
+      <c r="AJ16" s="56" t="s">
         <v>173</v>
       </c>
-      <c r="AK16" s="48"/>
-      <c r="AY16" s="48" t="s">
+      <c r="AK16" s="56"/>
+      <c r="AY16" s="56" t="s">
         <v>168</v>
       </c>
-      <c r="AZ16" s="48"/>
-      <c r="BT16" s="48" t="s">
+      <c r="AZ16" s="56"/>
+      <c r="BT16" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="BU16" s="48"/>
-      <c r="CK16" s="48" t="s">
+      <c r="BU16" s="56"/>
+      <c r="CK16" s="56" t="s">
         <v>195</v>
       </c>
-      <c r="CL16" s="48"/>
+      <c r="CL16" s="56"/>
     </row>
     <row r="17" spans="3:97" ht="13.5" customHeight="1">
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
-      <c r="T17" s="48"/>
-      <c r="U17" s="48"/>
-      <c r="AJ17" s="48"/>
-      <c r="AK17" s="48"/>
-      <c r="AY17" s="48"/>
-      <c r="AZ17" s="48"/>
-      <c r="BT17" s="48"/>
-      <c r="BU17" s="48"/>
-      <c r="CK17" s="48"/>
-      <c r="CL17" s="48"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="52"/>
+      <c r="T17" s="56"/>
+      <c r="U17" s="56"/>
+      <c r="AJ17" s="56"/>
+      <c r="AK17" s="56"/>
+      <c r="AY17" s="56"/>
+      <c r="AZ17" s="56"/>
+      <c r="BT17" s="56"/>
+      <c r="BU17" s="56"/>
+      <c r="CK17" s="56"/>
+      <c r="CL17" s="56"/>
     </row>
     <row r="19" spans="3:97" ht="13.5" customHeight="1">
-      <c r="E19" s="48" t="s">
+      <c r="E19" s="56" t="s">
         <v>150</v>
       </c>
-      <c r="F19" s="44"/>
-      <c r="V19" s="48" t="s">
+      <c r="F19" s="52"/>
+      <c r="V19" s="56" t="s">
         <v>160</v>
       </c>
-      <c r="W19" s="44"/>
-      <c r="X19" s="44"/>
-      <c r="Y19" s="44"/>
-      <c r="Z19" s="44"/>
-      <c r="AA19" s="44"/>
-      <c r="AB19" s="44"/>
-      <c r="AL19" s="48" t="s">
+      <c r="W19" s="52"/>
+      <c r="X19" s="52"/>
+      <c r="Y19" s="52"/>
+      <c r="Z19" s="52"/>
+      <c r="AA19" s="52"/>
+      <c r="AB19" s="52"/>
+      <c r="AL19" s="56" t="s">
         <v>174</v>
       </c>
-      <c r="AM19" s="44"/>
-      <c r="AN19" s="44"/>
-      <c r="AO19" s="44"/>
-      <c r="AP19" s="44"/>
-      <c r="AQ19" s="44"/>
-      <c r="AR19" s="44"/>
-      <c r="AS19" s="46"/>
-      <c r="AT19" s="46"/>
-      <c r="AU19" s="46"/>
-      <c r="BA19" s="48" t="s">
+      <c r="AM19" s="52"/>
+      <c r="AN19" s="52"/>
+      <c r="AO19" s="52"/>
+      <c r="AP19" s="52"/>
+      <c r="AQ19" s="52"/>
+      <c r="AR19" s="52"/>
+      <c r="AS19" s="54"/>
+      <c r="AT19" s="54"/>
+      <c r="AU19" s="54"/>
+      <c r="BA19" s="56" t="s">
         <v>160</v>
       </c>
-      <c r="BB19" s="44"/>
-      <c r="BC19" s="44"/>
-      <c r="BD19" s="44"/>
-      <c r="BE19" s="44"/>
-      <c r="BF19" s="44"/>
-      <c r="BG19" s="44"/>
-      <c r="BV19" s="48" t="s">
+      <c r="BB19" s="52"/>
+      <c r="BC19" s="52"/>
+      <c r="BD19" s="52"/>
+      <c r="BE19" s="52"/>
+      <c r="BF19" s="52"/>
+      <c r="BG19" s="52"/>
+      <c r="BV19" s="56" t="s">
         <v>160</v>
       </c>
-      <c r="BW19" s="44"/>
-      <c r="BX19" s="44"/>
-      <c r="BY19" s="44"/>
-      <c r="BZ19" s="44"/>
-      <c r="CA19" s="44"/>
-      <c r="CB19" s="44"/>
-      <c r="CM19" s="48" t="s">
+      <c r="BW19" s="52"/>
+      <c r="BX19" s="52"/>
+      <c r="BY19" s="52"/>
+      <c r="BZ19" s="52"/>
+      <c r="CA19" s="52"/>
+      <c r="CB19" s="52"/>
+      <c r="CM19" s="56" t="s">
         <v>160</v>
       </c>
-      <c r="CN19" s="44"/>
-      <c r="CO19" s="44"/>
-      <c r="CP19" s="44"/>
-      <c r="CQ19" s="44"/>
-      <c r="CR19" s="44"/>
-      <c r="CS19" s="44"/>
+      <c r="CN19" s="52"/>
+      <c r="CO19" s="52"/>
+      <c r="CP19" s="52"/>
+      <c r="CQ19" s="52"/>
+      <c r="CR19" s="52"/>
+      <c r="CS19" s="52"/>
     </row>
     <row r="20" spans="3:97" ht="13.5" customHeight="1">
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="V20" s="44"/>
-      <c r="W20" s="44"/>
-      <c r="X20" s="44"/>
-      <c r="Y20" s="44"/>
-      <c r="Z20" s="44"/>
-      <c r="AA20" s="44"/>
-      <c r="AB20" s="44"/>
-      <c r="AL20" s="44"/>
-      <c r="AM20" s="44"/>
-      <c r="AN20" s="44"/>
-      <c r="AO20" s="44"/>
-      <c r="AP20" s="44"/>
-      <c r="AQ20" s="44"/>
-      <c r="AR20" s="44"/>
-      <c r="AS20" s="46"/>
-      <c r="AT20" s="46"/>
-      <c r="AU20" s="46"/>
-      <c r="BA20" s="44"/>
-      <c r="BB20" s="44"/>
-      <c r="BC20" s="44"/>
-      <c r="BD20" s="44"/>
-      <c r="BE20" s="44"/>
-      <c r="BF20" s="44"/>
-      <c r="BG20" s="44"/>
-      <c r="BV20" s="44"/>
-      <c r="BW20" s="44"/>
-      <c r="BX20" s="44"/>
-      <c r="BY20" s="44"/>
-      <c r="BZ20" s="44"/>
-      <c r="CA20" s="44"/>
-      <c r="CB20" s="44"/>
-      <c r="CM20" s="44"/>
-      <c r="CN20" s="44"/>
-      <c r="CO20" s="44"/>
-      <c r="CP20" s="44"/>
-      <c r="CQ20" s="44"/>
-      <c r="CR20" s="44"/>
-      <c r="CS20" s="44"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="V20" s="52"/>
+      <c r="W20" s="52"/>
+      <c r="X20" s="52"/>
+      <c r="Y20" s="52"/>
+      <c r="Z20" s="52"/>
+      <c r="AA20" s="52"/>
+      <c r="AB20" s="52"/>
+      <c r="AL20" s="52"/>
+      <c r="AM20" s="52"/>
+      <c r="AN20" s="52"/>
+      <c r="AO20" s="52"/>
+      <c r="AP20" s="52"/>
+      <c r="AQ20" s="52"/>
+      <c r="AR20" s="52"/>
+      <c r="AS20" s="54"/>
+      <c r="AT20" s="54"/>
+      <c r="AU20" s="54"/>
+      <c r="BA20" s="52"/>
+      <c r="BB20" s="52"/>
+      <c r="BC20" s="52"/>
+      <c r="BD20" s="52"/>
+      <c r="BE20" s="52"/>
+      <c r="BF20" s="52"/>
+      <c r="BG20" s="52"/>
+      <c r="BV20" s="52"/>
+      <c r="BW20" s="52"/>
+      <c r="BX20" s="52"/>
+      <c r="BY20" s="52"/>
+      <c r="BZ20" s="52"/>
+      <c r="CA20" s="52"/>
+      <c r="CB20" s="52"/>
+      <c r="CM20" s="52"/>
+      <c r="CN20" s="52"/>
+      <c r="CO20" s="52"/>
+      <c r="CP20" s="52"/>
+      <c r="CQ20" s="52"/>
+      <c r="CR20" s="52"/>
+      <c r="CS20" s="52"/>
     </row>
     <row r="23" spans="3:97" ht="13.5" customHeight="1">
-      <c r="D23" s="47" t="s">
+      <c r="D23" s="53" t="s">
         <v>162</v>
       </c>
-      <c r="E23" s="49"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="46"/>
-      <c r="I23" s="46"/>
-      <c r="U23" s="47" t="s">
+      <c r="E23" s="58"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="54"/>
+      <c r="U23" s="53" t="s">
         <v>161</v>
       </c>
-      <c r="V23" s="47"/>
-      <c r="W23" s="47"/>
-      <c r="X23" s="47"/>
-      <c r="Y23" s="47"/>
-      <c r="Z23" s="47"/>
+      <c r="V23" s="53"/>
+      <c r="W23" s="53"/>
+      <c r="X23" s="53"/>
+      <c r="Y23" s="53"/>
+      <c r="Z23" s="53"/>
       <c r="AK23" s="30"/>
       <c r="AL23" s="30"/>
       <c r="AM23" s="30"/>
       <c r="AN23" s="30"/>
       <c r="AO23" s="30"/>
       <c r="AP23" s="30"/>
-      <c r="AZ23" s="47" t="s">
+      <c r="AZ23" s="53" t="s">
         <v>161</v>
       </c>
-      <c r="BA23" s="47"/>
-      <c r="BB23" s="47"/>
-      <c r="BC23" s="47"/>
-      <c r="BD23" s="47"/>
-      <c r="BE23" s="47"/>
+      <c r="BA23" s="53"/>
+      <c r="BB23" s="53"/>
+      <c r="BC23" s="53"/>
+      <c r="BD23" s="53"/>
+      <c r="BE23" s="53"/>
       <c r="BU23" s="30"/>
       <c r="BV23" s="30"/>
       <c r="BW23" s="30"/>
@@ -12810,30 +14489,30 @@
       <c r="CQ23" s="30"/>
     </row>
     <row r="24" spans="3:97" ht="13.5" customHeight="1">
-      <c r="D24" s="49"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="46"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="46"/>
-      <c r="I24" s="46"/>
-      <c r="U24" s="47"/>
-      <c r="V24" s="47"/>
-      <c r="W24" s="47"/>
-      <c r="X24" s="47"/>
-      <c r="Y24" s="47"/>
-      <c r="Z24" s="47"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="54"/>
+      <c r="U24" s="53"/>
+      <c r="V24" s="53"/>
+      <c r="W24" s="53"/>
+      <c r="X24" s="53"/>
+      <c r="Y24" s="53"/>
+      <c r="Z24" s="53"/>
       <c r="AK24" s="30"/>
       <c r="AL24" s="30"/>
       <c r="AM24" s="30"/>
       <c r="AN24" s="30"/>
       <c r="AO24" s="30"/>
       <c r="AP24" s="30"/>
-      <c r="AZ24" s="47"/>
-      <c r="BA24" s="47"/>
-      <c r="BB24" s="47"/>
-      <c r="BC24" s="47"/>
-      <c r="BD24" s="47"/>
-      <c r="BE24" s="47"/>
+      <c r="AZ24" s="53"/>
+      <c r="BA24" s="53"/>
+      <c r="BB24" s="53"/>
+      <c r="BC24" s="53"/>
+      <c r="BD24" s="53"/>
+      <c r="BE24" s="53"/>
       <c r="BU24" s="30"/>
       <c r="BV24" s="30"/>
       <c r="BW24" s="30"/>
@@ -12848,18 +14527,18 @@
       <c r="CQ24" s="30"/>
     </row>
     <row r="28" spans="3:97">
-      <c r="AI28" s="52" t="s">
+      <c r="AI28" s="61" t="s">
         <v>175</v>
       </c>
-      <c r="AJ28" s="44"/>
-      <c r="AK28" s="44"/>
-      <c r="AL28" s="44"/>
+      <c r="AJ28" s="52"/>
+      <c r="AK28" s="52"/>
+      <c r="AL28" s="52"/>
     </row>
     <row r="29" spans="3:97">
-      <c r="AI29" s="44"/>
-      <c r="AJ29" s="44"/>
-      <c r="AK29" s="44"/>
-      <c r="AL29" s="44"/>
+      <c r="AI29" s="52"/>
+      <c r="AJ29" s="52"/>
+      <c r="AK29" s="52"/>
+      <c r="AL29" s="52"/>
       <c r="AM29" s="29"/>
       <c r="AN29" s="29"/>
       <c r="AO29" s="29"/>
@@ -12870,10 +14549,10 @@
       <c r="AT29" s="29"/>
     </row>
     <row r="30" spans="3:97">
-      <c r="AI30" s="44"/>
-      <c r="AJ30" s="44"/>
-      <c r="AK30" s="44"/>
-      <c r="AL30" s="44"/>
+      <c r="AI30" s="52"/>
+      <c r="AJ30" s="52"/>
+      <c r="AK30" s="52"/>
+      <c r="AL30" s="52"/>
       <c r="AM30" s="29"/>
       <c r="AN30" s="29"/>
       <c r="AO30" s="29"/>
@@ -12884,26 +14563,26 @@
       <c r="AT30" s="29"/>
     </row>
     <row r="31" spans="3:97" ht="13.5" customHeight="1">
-      <c r="D31" s="47" t="s">
+      <c r="D31" s="53" t="s">
         <v>151</v>
       </c>
-      <c r="E31" s="49"/>
-      <c r="F31" s="46"/>
-      <c r="G31" s="46"/>
-      <c r="H31" s="46"/>
-      <c r="I31" s="46"/>
-      <c r="U31" s="47" t="s">
+      <c r="E31" s="58"/>
+      <c r="F31" s="54"/>
+      <c r="G31" s="54"/>
+      <c r="H31" s="54"/>
+      <c r="I31" s="54"/>
+      <c r="U31" s="53" t="s">
         <v>169</v>
       </c>
-      <c r="V31" s="47"/>
-      <c r="W31" s="47"/>
-      <c r="X31" s="47"/>
-      <c r="Y31" s="47"/>
-      <c r="Z31" s="47"/>
-      <c r="AI31" s="44"/>
-      <c r="AJ31" s="44"/>
-      <c r="AK31" s="44"/>
-      <c r="AL31" s="44"/>
+      <c r="V31" s="53"/>
+      <c r="W31" s="53"/>
+      <c r="X31" s="53"/>
+      <c r="Y31" s="53"/>
+      <c r="Z31" s="53"/>
+      <c r="AI31" s="52"/>
+      <c r="AJ31" s="52"/>
+      <c r="AK31" s="52"/>
+      <c r="AL31" s="52"/>
       <c r="AM31" s="30"/>
       <c r="AN31" s="30"/>
       <c r="AO31" s="30"/>
@@ -12912,42 +14591,42 @@
       <c r="AR31" s="29"/>
       <c r="AS31" s="29"/>
       <c r="AT31" s="29"/>
-      <c r="AZ31" s="47" t="s">
+      <c r="AZ31" s="53" t="s">
         <v>170</v>
       </c>
-      <c r="BA31" s="47"/>
-      <c r="BB31" s="47"/>
-      <c r="BC31" s="47"/>
-      <c r="BD31" s="47"/>
-      <c r="BE31" s="47"/>
+      <c r="BA31" s="53"/>
+      <c r="BB31" s="53"/>
+      <c r="BC31" s="53"/>
+      <c r="BD31" s="53"/>
+      <c r="BE31" s="53"/>
       <c r="BU31" s="30"/>
       <c r="BV31" s="30"/>
       <c r="BW31" s="30"/>
       <c r="BX31" s="30"/>
       <c r="BY31" s="30"/>
       <c r="BZ31" s="30"/>
-      <c r="CL31" s="47" t="s">
+      <c r="CL31" s="53" t="s">
         <v>170</v>
       </c>
-      <c r="CM31" s="47"/>
-      <c r="CN31" s="47"/>
-      <c r="CO31" s="47"/>
-      <c r="CP31" s="47"/>
-      <c r="CQ31" s="47"/>
+      <c r="CM31" s="53"/>
+      <c r="CN31" s="53"/>
+      <c r="CO31" s="53"/>
+      <c r="CP31" s="53"/>
+      <c r="CQ31" s="53"/>
     </row>
     <row r="32" spans="3:97" ht="13.5" customHeight="1">
-      <c r="D32" s="49"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="46"/>
-      <c r="H32" s="46"/>
-      <c r="I32" s="46"/>
-      <c r="U32" s="47"/>
-      <c r="V32" s="47"/>
-      <c r="W32" s="47"/>
-      <c r="X32" s="47"/>
-      <c r="Y32" s="47"/>
-      <c r="Z32" s="47"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="58"/>
+      <c r="F32" s="54"/>
+      <c r="G32" s="54"/>
+      <c r="H32" s="54"/>
+      <c r="I32" s="54"/>
+      <c r="U32" s="53"/>
+      <c r="V32" s="53"/>
+      <c r="W32" s="53"/>
+      <c r="X32" s="53"/>
+      <c r="Y32" s="53"/>
+      <c r="Z32" s="53"/>
       <c r="AJ32" s="29"/>
       <c r="AK32" s="30"/>
       <c r="AL32" s="30"/>
@@ -12959,24 +14638,24 @@
       <c r="AR32" s="29"/>
       <c r="AS32" s="29"/>
       <c r="AT32" s="29"/>
-      <c r="AZ32" s="47"/>
-      <c r="BA32" s="47"/>
-      <c r="BB32" s="47"/>
-      <c r="BC32" s="47"/>
-      <c r="BD32" s="47"/>
-      <c r="BE32" s="47"/>
+      <c r="AZ32" s="53"/>
+      <c r="BA32" s="53"/>
+      <c r="BB32" s="53"/>
+      <c r="BC32" s="53"/>
+      <c r="BD32" s="53"/>
+      <c r="BE32" s="53"/>
       <c r="BU32" s="30"/>
       <c r="BV32" s="30"/>
       <c r="BW32" s="30"/>
       <c r="BX32" s="30"/>
       <c r="BY32" s="30"/>
       <c r="BZ32" s="30"/>
-      <c r="CL32" s="47"/>
-      <c r="CM32" s="47"/>
-      <c r="CN32" s="47"/>
-      <c r="CO32" s="47"/>
-      <c r="CP32" s="47"/>
-      <c r="CQ32" s="47"/>
+      <c r="CL32" s="53"/>
+      <c r="CM32" s="53"/>
+      <c r="CN32" s="53"/>
+      <c r="CO32" s="53"/>
+      <c r="CP32" s="53"/>
+      <c r="CQ32" s="53"/>
     </row>
     <row r="33" spans="4:99">
       <c r="AJ33" s="29"/>
@@ -12992,14 +14671,14 @@
       <c r="AT33" s="29"/>
     </row>
     <row r="34" spans="4:99">
-      <c r="AH34" s="51" t="s">
+      <c r="AH34" s="63" t="s">
         <v>180</v>
       </c>
-      <c r="AI34" s="44"/>
-      <c r="AJ34" s="44"/>
-      <c r="AK34" s="44"/>
-      <c r="AL34" s="44"/>
-      <c r="AM34" s="44"/>
+      <c r="AI34" s="52"/>
+      <c r="AJ34" s="52"/>
+      <c r="AK34" s="52"/>
+      <c r="AL34" s="52"/>
+      <c r="AM34" s="52"/>
       <c r="AN34" s="29"/>
       <c r="AO34" s="29"/>
       <c r="AP34" s="29"/>
@@ -13009,12 +14688,12 @@
       <c r="AT34" s="29"/>
     </row>
     <row r="35" spans="4:99">
-      <c r="AH35" s="44"/>
-      <c r="AI35" s="44"/>
-      <c r="AJ35" s="44"/>
-      <c r="AK35" s="44"/>
-      <c r="AL35" s="44"/>
-      <c r="AM35" s="44"/>
+      <c r="AH35" s="52"/>
+      <c r="AI35" s="52"/>
+      <c r="AJ35" s="52"/>
+      <c r="AK35" s="52"/>
+      <c r="AL35" s="52"/>
+      <c r="AM35" s="52"/>
       <c r="AN35" s="29"/>
       <c r="AO35" s="29"/>
       <c r="AP35" s="29"/>
@@ -13022,22 +14701,22 @@
       <c r="AR35" s="29"/>
       <c r="AS35" s="29"/>
       <c r="AT35" s="29"/>
-      <c r="BU35" s="48" t="s">
+      <c r="BU35" s="56" t="s">
         <v>188</v>
       </c>
-      <c r="BV35" s="48"/>
-      <c r="BW35" s="48"/>
-      <c r="BX35" s="48"/>
-      <c r="BY35" s="48"/>
-      <c r="BZ35" s="48"/>
+      <c r="BV35" s="56"/>
+      <c r="BW35" s="56"/>
+      <c r="BX35" s="56"/>
+      <c r="BY35" s="56"/>
+      <c r="BZ35" s="56"/>
     </row>
     <row r="36" spans="4:99">
-      <c r="AH36" s="44"/>
-      <c r="AI36" s="44"/>
-      <c r="AJ36" s="44"/>
-      <c r="AK36" s="44"/>
-      <c r="AL36" s="44"/>
-      <c r="AM36" s="44"/>
+      <c r="AH36" s="52"/>
+      <c r="AI36" s="52"/>
+      <c r="AJ36" s="52"/>
+      <c r="AK36" s="52"/>
+      <c r="AL36" s="52"/>
+      <c r="AM36" s="52"/>
       <c r="AN36" s="29"/>
       <c r="AO36" s="29"/>
       <c r="AP36" s="29"/>
@@ -13045,20 +14724,20 @@
       <c r="AR36" s="29"/>
       <c r="AS36" s="29"/>
       <c r="AT36" s="29"/>
-      <c r="BU36" s="48"/>
-      <c r="BV36" s="48"/>
-      <c r="BW36" s="48"/>
-      <c r="BX36" s="48"/>
-      <c r="BY36" s="48"/>
-      <c r="BZ36" s="48"/>
+      <c r="BU36" s="56"/>
+      <c r="BV36" s="56"/>
+      <c r="BW36" s="56"/>
+      <c r="BX36" s="56"/>
+      <c r="BY36" s="56"/>
+      <c r="BZ36" s="56"/>
     </row>
     <row r="37" spans="4:99">
-      <c r="AH37" s="44"/>
-      <c r="AI37" s="44"/>
-      <c r="AJ37" s="44"/>
-      <c r="AK37" s="44"/>
-      <c r="AL37" s="44"/>
-      <c r="AM37" s="44"/>
+      <c r="AH37" s="52"/>
+      <c r="AI37" s="52"/>
+      <c r="AJ37" s="52"/>
+      <c r="AK37" s="52"/>
+      <c r="AL37" s="52"/>
+      <c r="AM37" s="52"/>
       <c r="AN37" s="29"/>
       <c r="AO37" s="29"/>
       <c r="AP37" s="29"/>
@@ -13068,22 +14747,22 @@
       <c r="AT37" s="29"/>
     </row>
     <row r="38" spans="4:99" ht="13.5" customHeight="1">
-      <c r="D38" s="47" t="s">
+      <c r="D38" s="53" t="s">
         <v>156</v>
       </c>
-      <c r="E38" s="49"/>
-      <c r="F38" s="46"/>
-      <c r="G38" s="46"/>
-      <c r="H38" s="46"/>
-      <c r="I38" s="46"/>
+      <c r="E38" s="58"/>
+      <c r="F38" s="54"/>
+      <c r="G38" s="54"/>
+      <c r="H38" s="54"/>
+      <c r="I38" s="54"/>
       <c r="AB38" s="30"/>
       <c r="AC38" s="30"/>
-      <c r="AI38" s="48" t="s">
+      <c r="AI38" s="56" t="s">
         <v>176</v>
       </c>
-      <c r="AJ38" s="44"/>
-      <c r="AK38" s="44"/>
-      <c r="AL38" s="44"/>
+      <c r="AJ38" s="52"/>
+      <c r="AK38" s="52"/>
+      <c r="AL38" s="52"/>
       <c r="AM38" s="29"/>
       <c r="AN38" s="29"/>
       <c r="AO38" s="29"/>
@@ -13093,49 +14772,49 @@
       <c r="AS38" s="29"/>
       <c r="AT38" s="29"/>
       <c r="AU38" s="29"/>
-      <c r="AZ38" s="47" t="s">
+      <c r="AZ38" s="53" t="s">
         <v>171</v>
       </c>
-      <c r="BA38" s="46"/>
-      <c r="BB38" s="46"/>
-      <c r="BC38" s="46"/>
-      <c r="BD38" s="46"/>
-      <c r="BE38" s="46"/>
-      <c r="BF38" s="46"/>
-      <c r="BG38" s="46"/>
-      <c r="BH38" s="46"/>
-      <c r="BI38" s="46"/>
+      <c r="BA38" s="54"/>
+      <c r="BB38" s="54"/>
+      <c r="BC38" s="54"/>
+      <c r="BD38" s="54"/>
+      <c r="BE38" s="54"/>
+      <c r="BF38" s="54"/>
+      <c r="BG38" s="54"/>
+      <c r="BH38" s="54"/>
+      <c r="BI38" s="54"/>
       <c r="BV38" s="57" t="s">
         <v>189</v>
       </c>
-      <c r="BW38" s="46"/>
-      <c r="BX38" s="46"/>
-      <c r="CL38" s="47" t="s">
+      <c r="BW38" s="54"/>
+      <c r="BX38" s="54"/>
+      <c r="CL38" s="53" t="s">
         <v>171</v>
       </c>
-      <c r="CM38" s="46"/>
-      <c r="CN38" s="46"/>
-      <c r="CO38" s="46"/>
-      <c r="CP38" s="46"/>
-      <c r="CQ38" s="46"/>
-      <c r="CR38" s="46"/>
-      <c r="CS38" s="46"/>
-      <c r="CT38" s="46"/>
-      <c r="CU38" s="46"/>
+      <c r="CM38" s="54"/>
+      <c r="CN38" s="54"/>
+      <c r="CO38" s="54"/>
+      <c r="CP38" s="54"/>
+      <c r="CQ38" s="54"/>
+      <c r="CR38" s="54"/>
+      <c r="CS38" s="54"/>
+      <c r="CT38" s="54"/>
+      <c r="CU38" s="54"/>
     </row>
     <row r="39" spans="4:99" ht="13.5" customHeight="1">
-      <c r="D39" s="49"/>
-      <c r="E39" s="49"/>
-      <c r="F39" s="46"/>
-      <c r="G39" s="46"/>
-      <c r="H39" s="46"/>
-      <c r="I39" s="46"/>
+      <c r="D39" s="58"/>
+      <c r="E39" s="58"/>
+      <c r="F39" s="54"/>
+      <c r="G39" s="54"/>
+      <c r="H39" s="54"/>
+      <c r="I39" s="54"/>
       <c r="AB39" s="30"/>
       <c r="AC39" s="30"/>
-      <c r="AI39" s="44"/>
-      <c r="AJ39" s="44"/>
-      <c r="AK39" s="44"/>
-      <c r="AL39" s="44"/>
+      <c r="AI39" s="52"/>
+      <c r="AJ39" s="52"/>
+      <c r="AK39" s="52"/>
+      <c r="AL39" s="52"/>
       <c r="AM39" s="29"/>
       <c r="AN39" s="29"/>
       <c r="AO39" s="29"/>
@@ -13145,35 +14824,35 @@
       <c r="AS39" s="29"/>
       <c r="AT39" s="29"/>
       <c r="AU39" s="29"/>
-      <c r="AZ39" s="46"/>
-      <c r="BA39" s="46"/>
-      <c r="BB39" s="46"/>
-      <c r="BC39" s="46"/>
-      <c r="BD39" s="46"/>
-      <c r="BE39" s="46"/>
-      <c r="BF39" s="46"/>
-      <c r="BG39" s="46"/>
-      <c r="BH39" s="46"/>
-      <c r="BI39" s="46"/>
-      <c r="BV39" s="46"/>
-      <c r="BW39" s="46"/>
-      <c r="BX39" s="46"/>
-      <c r="CL39" s="46"/>
-      <c r="CM39" s="46"/>
-      <c r="CN39" s="46"/>
-      <c r="CO39" s="46"/>
-      <c r="CP39" s="46"/>
-      <c r="CQ39" s="46"/>
-      <c r="CR39" s="46"/>
-      <c r="CS39" s="46"/>
-      <c r="CT39" s="46"/>
-      <c r="CU39" s="46"/>
+      <c r="AZ39" s="54"/>
+      <c r="BA39" s="54"/>
+      <c r="BB39" s="54"/>
+      <c r="BC39" s="54"/>
+      <c r="BD39" s="54"/>
+      <c r="BE39" s="54"/>
+      <c r="BF39" s="54"/>
+      <c r="BG39" s="54"/>
+      <c r="BH39" s="54"/>
+      <c r="BI39" s="54"/>
+      <c r="BV39" s="54"/>
+      <c r="BW39" s="54"/>
+      <c r="BX39" s="54"/>
+      <c r="CL39" s="54"/>
+      <c r="CM39" s="54"/>
+      <c r="CN39" s="54"/>
+      <c r="CO39" s="54"/>
+      <c r="CP39" s="54"/>
+      <c r="CQ39" s="54"/>
+      <c r="CR39" s="54"/>
+      <c r="CS39" s="54"/>
+      <c r="CT39" s="54"/>
+      <c r="CU39" s="54"/>
     </row>
     <row r="40" spans="4:99">
-      <c r="AI40" s="44"/>
-      <c r="AJ40" s="44"/>
-      <c r="AK40" s="44"/>
-      <c r="AL40" s="44"/>
+      <c r="AI40" s="52"/>
+      <c r="AJ40" s="52"/>
+      <c r="AK40" s="52"/>
+      <c r="AL40" s="52"/>
       <c r="AM40" s="29"/>
       <c r="AN40" s="29"/>
       <c r="AO40" s="29"/>
@@ -13184,14 +14863,14 @@
       <c r="AT40" s="29"/>
     </row>
     <row r="41" spans="4:99">
-      <c r="AH41" s="53" t="s">
+      <c r="AH41" s="64" t="s">
         <v>177</v>
       </c>
-      <c r="AI41" s="44"/>
-      <c r="AJ41" s="44"/>
-      <c r="AK41" s="44"/>
-      <c r="AL41" s="44"/>
-      <c r="AM41" s="44"/>
+      <c r="AI41" s="52"/>
+      <c r="AJ41" s="52"/>
+      <c r="AK41" s="52"/>
+      <c r="AL41" s="52"/>
+      <c r="AM41" s="52"/>
       <c r="AN41" s="29"/>
       <c r="AO41" s="29"/>
       <c r="AP41" s="29"/>
@@ -13199,32 +14878,32 @@
       <c r="AR41" s="29"/>
       <c r="AS41" s="29"/>
       <c r="AT41" s="29"/>
-      <c r="BU41" s="52" t="s">
+      <c r="BU41" s="61" t="s">
         <v>190</v>
       </c>
-      <c r="BV41" s="44"/>
-      <c r="BW41" s="44"/>
-      <c r="BX41" s="44"/>
-      <c r="BY41" s="44"/>
-      <c r="BZ41" s="44"/>
+      <c r="BV41" s="52"/>
+      <c r="BW41" s="52"/>
+      <c r="BX41" s="52"/>
+      <c r="BY41" s="52"/>
+      <c r="BZ41" s="52"/>
     </row>
     <row r="42" spans="4:99" ht="13.5" customHeight="1">
-      <c r="M42" s="48" t="s">
+      <c r="M42" s="56" t="s">
         <v>200</v>
       </c>
-      <c r="N42" s="44"/>
-      <c r="O42" s="44"/>
-      <c r="Z42" s="48" t="s">
+      <c r="N42" s="52"/>
+      <c r="O42" s="52"/>
+      <c r="Z42" s="56" t="s">
         <v>199</v>
       </c>
-      <c r="AA42" s="44"/>
-      <c r="AB42" s="44"/>
-      <c r="AH42" s="44"/>
-      <c r="AI42" s="44"/>
-      <c r="AJ42" s="44"/>
-      <c r="AK42" s="44"/>
-      <c r="AL42" s="44"/>
-      <c r="AM42" s="44"/>
+      <c r="AA42" s="52"/>
+      <c r="AB42" s="52"/>
+      <c r="AH42" s="52"/>
+      <c r="AI42" s="52"/>
+      <c r="AJ42" s="52"/>
+      <c r="AK42" s="52"/>
+      <c r="AL42" s="52"/>
+      <c r="AM42" s="52"/>
       <c r="AN42" s="29"/>
       <c r="AO42" s="29"/>
       <c r="AP42" s="29"/>
@@ -13232,30 +14911,30 @@
       <c r="AR42" s="29"/>
       <c r="AS42" s="29"/>
       <c r="AT42" s="29"/>
-      <c r="BU42" s="44"/>
-      <c r="BV42" s="44"/>
-      <c r="BW42" s="44"/>
-      <c r="BX42" s="44"/>
-      <c r="BY42" s="44"/>
-      <c r="BZ42" s="44"/>
+      <c r="BU42" s="52"/>
+      <c r="BV42" s="52"/>
+      <c r="BW42" s="52"/>
+      <c r="BX42" s="52"/>
+      <c r="BY42" s="52"/>
+      <c r="BZ42" s="52"/>
       <c r="CA42" s="29"/>
       <c r="CB42" s="29"/>
       <c r="CG42" s="29"/>
       <c r="CH42" s="29"/>
     </row>
     <row r="43" spans="4:99">
-      <c r="M43" s="44"/>
-      <c r="N43" s="44"/>
-      <c r="O43" s="44"/>
-      <c r="Z43" s="44"/>
-      <c r="AA43" s="44"/>
-      <c r="AB43" s="44"/>
-      <c r="AH43" s="44"/>
-      <c r="AI43" s="44"/>
-      <c r="AJ43" s="44"/>
-      <c r="AK43" s="44"/>
-      <c r="AL43" s="44"/>
-      <c r="AM43" s="44"/>
+      <c r="M43" s="52"/>
+      <c r="N43" s="52"/>
+      <c r="O43" s="52"/>
+      <c r="Z43" s="52"/>
+      <c r="AA43" s="52"/>
+      <c r="AB43" s="52"/>
+      <c r="AH43" s="52"/>
+      <c r="AI43" s="52"/>
+      <c r="AJ43" s="52"/>
+      <c r="AK43" s="52"/>
+      <c r="AL43" s="52"/>
+      <c r="AM43" s="52"/>
       <c r="AN43" s="29"/>
       <c r="AO43" s="29"/>
       <c r="AP43" s="29"/>
@@ -13263,24 +14942,24 @@
       <c r="AR43" s="29"/>
       <c r="AS43" s="29"/>
       <c r="AT43" s="29"/>
-      <c r="BU43" s="44"/>
-      <c r="BV43" s="44"/>
-      <c r="BW43" s="44"/>
-      <c r="BX43" s="44"/>
-      <c r="BY43" s="44"/>
-      <c r="BZ43" s="44"/>
+      <c r="BU43" s="52"/>
+      <c r="BV43" s="52"/>
+      <c r="BW43" s="52"/>
+      <c r="BX43" s="52"/>
+      <c r="BY43" s="52"/>
+      <c r="BZ43" s="52"/>
       <c r="CA43" s="29"/>
       <c r="CB43" s="29"/>
       <c r="CG43" s="29"/>
       <c r="CH43" s="29"/>
     </row>
     <row r="44" spans="4:99">
-      <c r="AH44" s="44"/>
-      <c r="AI44" s="44"/>
-      <c r="AJ44" s="44"/>
-      <c r="AK44" s="44"/>
-      <c r="AL44" s="44"/>
-      <c r="AM44" s="44"/>
+      <c r="AH44" s="52"/>
+      <c r="AI44" s="52"/>
+      <c r="AJ44" s="52"/>
+      <c r="AK44" s="52"/>
+      <c r="AL44" s="52"/>
+      <c r="AM44" s="52"/>
       <c r="AN44" s="29"/>
       <c r="AO44" s="29"/>
       <c r="AP44" s="29"/>
@@ -13288,22 +14967,22 @@
       <c r="AR44" s="29"/>
       <c r="AS44" s="29"/>
       <c r="AT44" s="29"/>
-      <c r="BU44" s="44"/>
-      <c r="BV44" s="44"/>
-      <c r="BW44" s="44"/>
-      <c r="BX44" s="44"/>
-      <c r="BY44" s="44"/>
-      <c r="BZ44" s="44"/>
+      <c r="BU44" s="52"/>
+      <c r="BV44" s="52"/>
+      <c r="BW44" s="52"/>
+      <c r="BX44" s="52"/>
+      <c r="BY44" s="52"/>
+      <c r="BZ44" s="52"/>
     </row>
     <row r="45" spans="4:99">
-      <c r="R45" s="48" t="s">
+      <c r="R45" s="56" t="s">
         <v>164</v>
       </c>
-      <c r="S45" s="46"/>
-      <c r="T45" s="46"/>
-      <c r="U45" s="46"/>
-      <c r="V45" s="46"/>
-      <c r="W45" s="46"/>
+      <c r="S45" s="54"/>
+      <c r="T45" s="54"/>
+      <c r="U45" s="54"/>
+      <c r="V45" s="54"/>
+      <c r="W45" s="54"/>
       <c r="AJ45" s="29"/>
       <c r="AK45" s="29"/>
       <c r="AL45" s="29"/>
@@ -13317,20 +14996,20 @@
       <c r="AT45" s="29"/>
     </row>
     <row r="46" spans="4:99" ht="13.5" customHeight="1">
-      <c r="D46" s="47" t="s">
+      <c r="D46" s="53" t="s">
         <v>153</v>
       </c>
-      <c r="E46" s="49"/>
-      <c r="F46" s="46"/>
-      <c r="G46" s="46"/>
-      <c r="H46" s="46"/>
-      <c r="I46" s="46"/>
-      <c r="R46" s="46"/>
-      <c r="S46" s="46"/>
-      <c r="T46" s="46"/>
-      <c r="U46" s="46"/>
-      <c r="V46" s="46"/>
-      <c r="W46" s="46"/>
+      <c r="E46" s="58"/>
+      <c r="F46" s="54"/>
+      <c r="G46" s="54"/>
+      <c r="H46" s="54"/>
+      <c r="I46" s="54"/>
+      <c r="R46" s="54"/>
+      <c r="S46" s="54"/>
+      <c r="T46" s="54"/>
+      <c r="U46" s="54"/>
+      <c r="V46" s="54"/>
+      <c r="W46" s="54"/>
       <c r="X46" s="30"/>
       <c r="Y46" s="31"/>
       <c r="Z46" s="29"/>
@@ -13348,42 +15027,42 @@
       <c r="AR46" s="29"/>
       <c r="AS46" s="29"/>
       <c r="AT46" s="29"/>
-      <c r="AZ46" s="47" t="s">
+      <c r="AZ46" s="53" t="s">
         <v>153</v>
       </c>
-      <c r="BA46" s="49"/>
-      <c r="BB46" s="46"/>
-      <c r="BC46" s="46"/>
-      <c r="BD46" s="46"/>
-      <c r="BE46" s="46"/>
-      <c r="BW46" s="56" t="s">
+      <c r="BA46" s="58"/>
+      <c r="BB46" s="54"/>
+      <c r="BC46" s="54"/>
+      <c r="BD46" s="54"/>
+      <c r="BE46" s="54"/>
+      <c r="BW46" s="60" t="s">
         <v>191</v>
       </c>
-      <c r="BX46" s="44"/>
-      <c r="BY46" s="44"/>
-      <c r="BZ46" s="44"/>
-      <c r="CL46" s="47" t="s">
+      <c r="BX46" s="52"/>
+      <c r="BY46" s="52"/>
+      <c r="BZ46" s="52"/>
+      <c r="CL46" s="53" t="s">
         <v>153</v>
       </c>
-      <c r="CM46" s="49"/>
-      <c r="CN46" s="46"/>
-      <c r="CO46" s="46"/>
-      <c r="CP46" s="46"/>
-      <c r="CQ46" s="46"/>
+      <c r="CM46" s="58"/>
+      <c r="CN46" s="54"/>
+      <c r="CO46" s="54"/>
+      <c r="CP46" s="54"/>
+      <c r="CQ46" s="54"/>
     </row>
     <row r="47" spans="4:99" ht="13.5" customHeight="1">
-      <c r="D47" s="49"/>
-      <c r="E47" s="49"/>
-      <c r="F47" s="46"/>
-      <c r="G47" s="46"/>
-      <c r="H47" s="46"/>
-      <c r="I47" s="46"/>
-      <c r="R47" s="46"/>
-      <c r="S47" s="46"/>
-      <c r="T47" s="46"/>
-      <c r="U47" s="46"/>
-      <c r="V47" s="46"/>
-      <c r="W47" s="46"/>
+      <c r="D47" s="58"/>
+      <c r="E47" s="58"/>
+      <c r="F47" s="54"/>
+      <c r="G47" s="54"/>
+      <c r="H47" s="54"/>
+      <c r="I47" s="54"/>
+      <c r="R47" s="54"/>
+      <c r="S47" s="54"/>
+      <c r="T47" s="54"/>
+      <c r="U47" s="54"/>
+      <c r="V47" s="54"/>
+      <c r="W47" s="54"/>
       <c r="X47" s="31"/>
       <c r="Y47" s="31"/>
       <c r="Z47" s="29"/>
@@ -13401,30 +15080,30 @@
       <c r="AR47" s="29"/>
       <c r="AS47" s="29"/>
       <c r="AT47" s="29"/>
-      <c r="AZ47" s="49"/>
-      <c r="BA47" s="49"/>
-      <c r="BB47" s="46"/>
-      <c r="BC47" s="46"/>
-      <c r="BD47" s="46"/>
-      <c r="BE47" s="46"/>
-      <c r="BW47" s="44"/>
-      <c r="BX47" s="44"/>
-      <c r="BY47" s="44"/>
-      <c r="BZ47" s="44"/>
-      <c r="CL47" s="49"/>
-      <c r="CM47" s="49"/>
-      <c r="CN47" s="46"/>
-      <c r="CO47" s="46"/>
-      <c r="CP47" s="46"/>
-      <c r="CQ47" s="46"/>
+      <c r="AZ47" s="58"/>
+      <c r="BA47" s="58"/>
+      <c r="BB47" s="54"/>
+      <c r="BC47" s="54"/>
+      <c r="BD47" s="54"/>
+      <c r="BE47" s="54"/>
+      <c r="BW47" s="52"/>
+      <c r="BX47" s="52"/>
+      <c r="BY47" s="52"/>
+      <c r="BZ47" s="52"/>
+      <c r="CL47" s="58"/>
+      <c r="CM47" s="58"/>
+      <c r="CN47" s="54"/>
+      <c r="CO47" s="54"/>
+      <c r="CP47" s="54"/>
+      <c r="CQ47" s="54"/>
     </row>
     <row r="48" spans="4:99" ht="13.5" customHeight="1">
-      <c r="R48" s="46"/>
-      <c r="S48" s="46"/>
-      <c r="T48" s="46"/>
-      <c r="U48" s="46"/>
-      <c r="V48" s="46"/>
-      <c r="W48" s="46"/>
+      <c r="R48" s="54"/>
+      <c r="S48" s="54"/>
+      <c r="T48" s="54"/>
+      <c r="U48" s="54"/>
+      <c r="V48" s="54"/>
+      <c r="W48" s="54"/>
       <c r="AJ48" s="29"/>
       <c r="AK48" s="29"/>
       <c r="AL48" s="29"/>
@@ -13438,14 +15117,14 @@
       <c r="AT48" s="29"/>
     </row>
     <row r="49" spans="4:98" ht="13.5" customHeight="1">
-      <c r="AH49" s="54" t="s">
+      <c r="AH49" s="65" t="s">
         <v>178</v>
       </c>
-      <c r="AI49" s="44"/>
-      <c r="AJ49" s="44"/>
-      <c r="AK49" s="44"/>
-      <c r="AL49" s="44"/>
-      <c r="AM49" s="44"/>
+      <c r="AI49" s="52"/>
+      <c r="AJ49" s="52"/>
+      <c r="AK49" s="52"/>
+      <c r="AL49" s="52"/>
+      <c r="AM49" s="52"/>
       <c r="AN49" s="29"/>
       <c r="AO49" s="29"/>
       <c r="AP49" s="29"/>
@@ -13455,12 +15134,12 @@
       <c r="AT49" s="29"/>
     </row>
     <row r="50" spans="4:98">
-      <c r="AH50" s="44"/>
-      <c r="AI50" s="44"/>
-      <c r="AJ50" s="44"/>
-      <c r="AK50" s="44"/>
-      <c r="AL50" s="44"/>
-      <c r="AM50" s="44"/>
+      <c r="AH50" s="52"/>
+      <c r="AI50" s="52"/>
+      <c r="AJ50" s="52"/>
+      <c r="AK50" s="52"/>
+      <c r="AL50" s="52"/>
+      <c r="AM50" s="52"/>
       <c r="AN50" s="29"/>
       <c r="AO50" s="29"/>
       <c r="AP50" s="29"/>
@@ -13468,23 +15147,23 @@
       <c r="AR50" s="29"/>
       <c r="AS50" s="29"/>
       <c r="AT50" s="29"/>
-      <c r="BU50" s="48" t="s">
+      <c r="BU50" s="56" t="s">
         <v>193</v>
       </c>
-      <c r="BV50" s="44"/>
-      <c r="BW50" s="44"/>
-      <c r="BX50" s="44"/>
-      <c r="BY50" s="44"/>
-      <c r="BZ50" s="44"/>
-      <c r="CA50" s="44"/>
+      <c r="BV50" s="52"/>
+      <c r="BW50" s="52"/>
+      <c r="BX50" s="52"/>
+      <c r="BY50" s="52"/>
+      <c r="BZ50" s="52"/>
+      <c r="CA50" s="52"/>
     </row>
     <row r="51" spans="4:98">
-      <c r="AH51" s="44"/>
-      <c r="AI51" s="44"/>
-      <c r="AJ51" s="44"/>
-      <c r="AK51" s="44"/>
-      <c r="AL51" s="44"/>
-      <c r="AM51" s="44"/>
+      <c r="AH51" s="52"/>
+      <c r="AI51" s="52"/>
+      <c r="AJ51" s="52"/>
+      <c r="AK51" s="52"/>
+      <c r="AL51" s="52"/>
+      <c r="AM51" s="52"/>
       <c r="AN51" s="29"/>
       <c r="AO51" s="29"/>
       <c r="AP51" s="29"/>
@@ -13492,29 +15171,29 @@
       <c r="AR51" s="29"/>
       <c r="AS51" s="29"/>
       <c r="AT51" s="29"/>
-      <c r="BU51" s="44"/>
-      <c r="BV51" s="44"/>
-      <c r="BW51" s="44"/>
-      <c r="BX51" s="44"/>
-      <c r="BY51" s="44"/>
-      <c r="BZ51" s="44"/>
-      <c r="CA51" s="44"/>
+      <c r="BU51" s="52"/>
+      <c r="BV51" s="52"/>
+      <c r="BW51" s="52"/>
+      <c r="BX51" s="52"/>
+      <c r="BY51" s="52"/>
+      <c r="BZ51" s="52"/>
+      <c r="CA51" s="52"/>
     </row>
     <row r="52" spans="4:98">
-      <c r="R52" s="48" t="s">
+      <c r="R52" s="56" t="s">
         <v>163</v>
       </c>
-      <c r="S52" s="48"/>
-      <c r="T52" s="48"/>
-      <c r="U52" s="48"/>
-      <c r="V52" s="48"/>
-      <c r="W52" s="48"/>
-      <c r="AH52" s="44"/>
-      <c r="AI52" s="44"/>
-      <c r="AJ52" s="44"/>
-      <c r="AK52" s="44"/>
-      <c r="AL52" s="44"/>
-      <c r="AM52" s="44"/>
+      <c r="S52" s="56"/>
+      <c r="T52" s="56"/>
+      <c r="U52" s="56"/>
+      <c r="V52" s="56"/>
+      <c r="W52" s="56"/>
+      <c r="AH52" s="52"/>
+      <c r="AI52" s="52"/>
+      <c r="AJ52" s="52"/>
+      <c r="AK52" s="52"/>
+      <c r="AL52" s="52"/>
+      <c r="AM52" s="52"/>
       <c r="AN52" s="29"/>
       <c r="AO52" s="29"/>
       <c r="AP52" s="29"/>
@@ -13524,22 +15203,22 @@
       <c r="AT52" s="29"/>
     </row>
     <row r="53" spans="4:98" ht="13.5" customHeight="1">
-      <c r="D53" s="47" t="s">
+      <c r="D53" s="53" t="s">
         <v>152</v>
       </c>
-      <c r="E53" s="47"/>
-      <c r="F53" s="47"/>
-      <c r="G53" s="47"/>
-      <c r="H53" s="47"/>
-      <c r="I53" s="47"/>
+      <c r="E53" s="53"/>
+      <c r="F53" s="53"/>
+      <c r="G53" s="53"/>
+      <c r="H53" s="53"/>
+      <c r="I53" s="53"/>
       <c r="P53" s="30"/>
       <c r="Q53" s="30"/>
-      <c r="R53" s="48"/>
-      <c r="S53" s="48"/>
-      <c r="T53" s="48"/>
-      <c r="U53" s="48"/>
-      <c r="V53" s="48"/>
-      <c r="W53" s="48"/>
+      <c r="R53" s="56"/>
+      <c r="S53" s="56"/>
+      <c r="T53" s="56"/>
+      <c r="U53" s="56"/>
+      <c r="V53" s="56"/>
+      <c r="W53" s="56"/>
       <c r="AJ53" s="29"/>
       <c r="AK53" s="30"/>
       <c r="AL53" s="30"/>
@@ -13551,19 +15230,19 @@
       <c r="AR53" s="29"/>
       <c r="AS53" s="29"/>
       <c r="AT53" s="29"/>
-      <c r="AZ53" s="47" t="s">
+      <c r="AZ53" s="53" t="s">
         <v>172</v>
       </c>
-      <c r="BA53" s="47"/>
-      <c r="BB53" s="47"/>
-      <c r="BC53" s="47"/>
-      <c r="BD53" s="47"/>
-      <c r="BE53" s="47"/>
-      <c r="BV53" s="50" t="s">
+      <c r="BA53" s="53"/>
+      <c r="BB53" s="53"/>
+      <c r="BC53" s="53"/>
+      <c r="BD53" s="53"/>
+      <c r="BE53" s="53"/>
+      <c r="BV53" s="62" t="s">
         <v>192</v>
       </c>
-      <c r="BW53" s="44"/>
-      <c r="BX53" s="44"/>
+      <c r="BW53" s="52"/>
+      <c r="BX53" s="52"/>
       <c r="CL53" s="30"/>
       <c r="CM53" s="30"/>
       <c r="CN53" s="30"/>
@@ -13575,20 +15254,20 @@
       <c r="CT53" s="29"/>
     </row>
     <row r="54" spans="4:98" ht="13.5" customHeight="1">
-      <c r="D54" s="47"/>
-      <c r="E54" s="47"/>
-      <c r="F54" s="47"/>
-      <c r="G54" s="47"/>
-      <c r="H54" s="47"/>
-      <c r="I54" s="47"/>
+      <c r="D54" s="53"/>
+      <c r="E54" s="53"/>
+      <c r="F54" s="53"/>
+      <c r="G54" s="53"/>
+      <c r="H54" s="53"/>
+      <c r="I54" s="53"/>
       <c r="P54" s="30"/>
       <c r="Q54" s="30"/>
-      <c r="R54" s="44"/>
-      <c r="S54" s="44"/>
-      <c r="T54" s="44"/>
-      <c r="U54" s="44"/>
-      <c r="V54" s="44"/>
-      <c r="W54" s="44"/>
+      <c r="R54" s="52"/>
+      <c r="S54" s="52"/>
+      <c r="T54" s="52"/>
+      <c r="U54" s="52"/>
+      <c r="V54" s="52"/>
+      <c r="W54" s="52"/>
       <c r="AJ54" s="29"/>
       <c r="AK54" s="30"/>
       <c r="AL54" s="30"/>
@@ -13600,15 +15279,15 @@
       <c r="AR54" s="29"/>
       <c r="AS54" s="29"/>
       <c r="AT54" s="29"/>
-      <c r="AZ54" s="47"/>
-      <c r="BA54" s="47"/>
-      <c r="BB54" s="47"/>
-      <c r="BC54" s="47"/>
-      <c r="BD54" s="47"/>
-      <c r="BE54" s="47"/>
-      <c r="BV54" s="44"/>
-      <c r="BW54" s="44"/>
-      <c r="BX54" s="44"/>
+      <c r="AZ54" s="53"/>
+      <c r="BA54" s="53"/>
+      <c r="BB54" s="53"/>
+      <c r="BC54" s="53"/>
+      <c r="BD54" s="53"/>
+      <c r="BE54" s="53"/>
+      <c r="BV54" s="52"/>
+      <c r="BW54" s="52"/>
+      <c r="BX54" s="52"/>
       <c r="CL54" s="30"/>
       <c r="CM54" s="30"/>
       <c r="CN54" s="30"/>
@@ -13620,12 +15299,12 @@
       <c r="CT54" s="29"/>
     </row>
     <row r="55" spans="4:98" ht="13.5" customHeight="1">
-      <c r="R55" s="44"/>
-      <c r="S55" s="44"/>
-      <c r="T55" s="44"/>
-      <c r="U55" s="44"/>
-      <c r="V55" s="44"/>
-      <c r="W55" s="44"/>
+      <c r="R55" s="52"/>
+      <c r="S55" s="52"/>
+      <c r="T55" s="52"/>
+      <c r="U55" s="52"/>
+      <c r="V55" s="52"/>
+      <c r="W55" s="52"/>
       <c r="AJ55" s="29"/>
       <c r="AK55" s="29"/>
       <c r="AL55" s="29"/>
@@ -13648,14 +15327,14 @@
       <c r="CT55" s="29"/>
     </row>
     <row r="56" spans="4:98" ht="13.5" customHeight="1">
-      <c r="AH56" s="50" t="s">
+      <c r="AH56" s="62" t="s">
         <v>179</v>
       </c>
-      <c r="AI56" s="44"/>
-      <c r="AJ56" s="44"/>
-      <c r="AK56" s="44"/>
-      <c r="AL56" s="44"/>
-      <c r="AM56" s="44"/>
+      <c r="AI56" s="52"/>
+      <c r="AJ56" s="52"/>
+      <c r="AK56" s="52"/>
+      <c r="AL56" s="52"/>
+      <c r="AM56" s="52"/>
       <c r="AN56" s="29"/>
       <c r="AO56" s="29"/>
       <c r="AP56" s="29"/>
@@ -13674,12 +15353,12 @@
       <c r="CT56" s="29"/>
     </row>
     <row r="57" spans="4:98" ht="13.5" customHeight="1">
-      <c r="AH57" s="44"/>
-      <c r="AI57" s="44"/>
-      <c r="AJ57" s="44"/>
-      <c r="AK57" s="44"/>
-      <c r="AL57" s="44"/>
-      <c r="AM57" s="44"/>
+      <c r="AH57" s="52"/>
+      <c r="AI57" s="52"/>
+      <c r="AJ57" s="52"/>
+      <c r="AK57" s="52"/>
+      <c r="AL57" s="52"/>
+      <c r="AM57" s="52"/>
       <c r="AN57" s="29"/>
       <c r="AO57" s="29"/>
       <c r="AP57" s="29"/>
@@ -13687,14 +15366,14 @@
       <c r="AR57" s="29"/>
       <c r="AS57" s="29"/>
       <c r="AT57" s="29"/>
-      <c r="BU57" s="48" t="s">
+      <c r="BU57" s="56" t="s">
         <v>194</v>
       </c>
-      <c r="BV57" s="48"/>
-      <c r="BW57" s="48"/>
-      <c r="BX57" s="48"/>
-      <c r="BY57" s="48"/>
-      <c r="BZ57" s="48"/>
+      <c r="BV57" s="56"/>
+      <c r="BW57" s="56"/>
+      <c r="BX57" s="56"/>
+      <c r="BY57" s="56"/>
+      <c r="BZ57" s="56"/>
       <c r="CL57" s="29"/>
       <c r="CM57" s="29"/>
       <c r="CN57" s="29"/>
@@ -13706,18 +15385,18 @@
       <c r="CT57" s="29"/>
     </row>
     <row r="58" spans="4:98">
-      <c r="S58" s="50" t="s">
+      <c r="S58" s="62" t="s">
         <v>165</v>
       </c>
-      <c r="T58" s="44"/>
-      <c r="U58" s="44"/>
-      <c r="V58" s="44"/>
-      <c r="AH58" s="44"/>
-      <c r="AI58" s="44"/>
-      <c r="AJ58" s="44"/>
-      <c r="AK58" s="44"/>
-      <c r="AL58" s="44"/>
-      <c r="AM58" s="44"/>
+      <c r="T58" s="52"/>
+      <c r="U58" s="52"/>
+      <c r="V58" s="52"/>
+      <c r="AH58" s="52"/>
+      <c r="AI58" s="52"/>
+      <c r="AJ58" s="52"/>
+      <c r="AK58" s="52"/>
+      <c r="AL58" s="52"/>
+      <c r="AM58" s="52"/>
       <c r="AN58" s="29"/>
       <c r="AO58" s="29"/>
       <c r="AP58" s="29"/>
@@ -13725,12 +15404,12 @@
       <c r="AR58" s="29"/>
       <c r="AS58" s="29"/>
       <c r="AT58" s="29"/>
-      <c r="BU58" s="48"/>
-      <c r="BV58" s="48"/>
-      <c r="BW58" s="48"/>
-      <c r="BX58" s="48"/>
-      <c r="BY58" s="48"/>
-      <c r="BZ58" s="48"/>
+      <c r="BU58" s="56"/>
+      <c r="BV58" s="56"/>
+      <c r="BW58" s="56"/>
+      <c r="BX58" s="56"/>
+      <c r="BY58" s="56"/>
+      <c r="BZ58" s="56"/>
       <c r="CL58" s="29"/>
       <c r="CM58" s="29"/>
       <c r="CN58" s="29"/>
@@ -13742,32 +15421,32 @@
       <c r="CT58" s="29"/>
     </row>
     <row r="59" spans="4:98" ht="13.5" customHeight="1">
-      <c r="E59" s="47" t="s">
+      <c r="E59" s="53" t="s">
         <v>154</v>
       </c>
-      <c r="F59" s="47"/>
-      <c r="G59" s="47"/>
-      <c r="H59" s="47"/>
-      <c r="I59" s="47"/>
-      <c r="J59" s="47"/>
-      <c r="K59" s="46"/>
-      <c r="L59" s="46"/>
+      <c r="F59" s="53"/>
+      <c r="G59" s="53"/>
+      <c r="H59" s="53"/>
+      <c r="I59" s="53"/>
+      <c r="J59" s="53"/>
+      <c r="K59" s="54"/>
+      <c r="L59" s="54"/>
       <c r="P59" s="30"/>
-      <c r="S59" s="44"/>
-      <c r="T59" s="44"/>
-      <c r="U59" s="44"/>
-      <c r="V59" s="44"/>
+      <c r="S59" s="52"/>
+      <c r="T59" s="52"/>
+      <c r="U59" s="52"/>
+      <c r="V59" s="52"/>
       <c r="Y59" s="30"/>
       <c r="Z59" s="30"/>
       <c r="AA59" s="30"/>
       <c r="AB59" s="30"/>
       <c r="AC59" s="30"/>
-      <c r="AH59" s="44"/>
-      <c r="AI59" s="44"/>
-      <c r="AJ59" s="44"/>
-      <c r="AK59" s="44"/>
-      <c r="AL59" s="44"/>
-      <c r="AM59" s="44"/>
+      <c r="AH59" s="52"/>
+      <c r="AI59" s="52"/>
+      <c r="AJ59" s="52"/>
+      <c r="AK59" s="52"/>
+      <c r="AL59" s="52"/>
+      <c r="AM59" s="52"/>
       <c r="AN59" s="30"/>
       <c r="AO59" s="30"/>
       <c r="AP59" s="30"/>
@@ -13775,16 +15454,16 @@
       <c r="AR59" s="29"/>
       <c r="AS59" s="29"/>
       <c r="AT59" s="29"/>
-      <c r="BA59" s="47" t="s">
+      <c r="BA59" s="53" t="s">
         <v>154</v>
       </c>
-      <c r="BB59" s="47"/>
-      <c r="BC59" s="47"/>
-      <c r="BD59" s="47"/>
-      <c r="BE59" s="47"/>
-      <c r="BF59" s="47"/>
-      <c r="BG59" s="46"/>
-      <c r="BH59" s="46"/>
+      <c r="BB59" s="53"/>
+      <c r="BC59" s="53"/>
+      <c r="BD59" s="53"/>
+      <c r="BE59" s="53"/>
+      <c r="BF59" s="53"/>
+      <c r="BG59" s="54"/>
+      <c r="BH59" s="54"/>
       <c r="CL59" s="29"/>
       <c r="CM59" s="30"/>
       <c r="CN59" s="30"/>
@@ -13796,19 +15475,19 @@
       <c r="CT59" s="29"/>
     </row>
     <row r="60" spans="4:98" ht="13.5" customHeight="1">
-      <c r="E60" s="47"/>
-      <c r="F60" s="47"/>
-      <c r="G60" s="47"/>
-      <c r="H60" s="47"/>
-      <c r="I60" s="47"/>
-      <c r="J60" s="47"/>
-      <c r="K60" s="46"/>
-      <c r="L60" s="46"/>
+      <c r="E60" s="53"/>
+      <c r="F60" s="53"/>
+      <c r="G60" s="53"/>
+      <c r="H60" s="53"/>
+      <c r="I60" s="53"/>
+      <c r="J60" s="53"/>
+      <c r="K60" s="54"/>
+      <c r="L60" s="54"/>
       <c r="P60" s="30"/>
-      <c r="S60" s="44"/>
-      <c r="T60" s="44"/>
-      <c r="U60" s="44"/>
-      <c r="V60" s="44"/>
+      <c r="S60" s="52"/>
+      <c r="T60" s="52"/>
+      <c r="U60" s="52"/>
+      <c r="V60" s="52"/>
       <c r="Y60" s="30"/>
       <c r="Z60" s="30"/>
       <c r="AA60" s="30"/>
@@ -13825,14 +15504,14 @@
       <c r="AR60" s="29"/>
       <c r="AS60" s="29"/>
       <c r="AT60" s="29"/>
-      <c r="BA60" s="47"/>
-      <c r="BB60" s="47"/>
-      <c r="BC60" s="47"/>
-      <c r="BD60" s="47"/>
-      <c r="BE60" s="47"/>
-      <c r="BF60" s="47"/>
-      <c r="BG60" s="46"/>
-      <c r="BH60" s="46"/>
+      <c r="BA60" s="53"/>
+      <c r="BB60" s="53"/>
+      <c r="BC60" s="53"/>
+      <c r="BD60" s="53"/>
+      <c r="BE60" s="53"/>
+      <c r="BF60" s="53"/>
+      <c r="BG60" s="54"/>
+      <c r="BH60" s="54"/>
       <c r="CL60" s="29"/>
       <c r="CM60" s="30"/>
       <c r="CN60" s="30"/>
@@ -13844,10 +15523,10 @@
       <c r="CT60" s="29"/>
     </row>
     <row r="61" spans="4:98">
-      <c r="S61" s="44"/>
-      <c r="T61" s="44"/>
-      <c r="U61" s="44"/>
-      <c r="V61" s="44"/>
+      <c r="S61" s="52"/>
+      <c r="T61" s="52"/>
+      <c r="U61" s="52"/>
+      <c r="V61" s="52"/>
       <c r="AJ61" s="29"/>
       <c r="AK61" s="29"/>
       <c r="AL61" s="29"/>
@@ -13892,14 +15571,14 @@
       <c r="CT62" s="29"/>
     </row>
     <row r="63" spans="4:98" ht="13.5" customHeight="1">
-      <c r="AH63" s="48" t="s">
+      <c r="AH63" s="56" t="s">
         <v>182</v>
       </c>
-      <c r="AI63" s="44"/>
-      <c r="AJ63" s="44"/>
-      <c r="AK63" s="44"/>
-      <c r="AL63" s="44"/>
-      <c r="AM63" s="44"/>
+      <c r="AI63" s="52"/>
+      <c r="AJ63" s="52"/>
+      <c r="AK63" s="52"/>
+      <c r="AL63" s="52"/>
+      <c r="AM63" s="52"/>
       <c r="AN63" s="29"/>
       <c r="AO63" s="29"/>
       <c r="AP63" s="29"/>
@@ -13926,20 +15605,20 @@
       <c r="CT63" s="29"/>
     </row>
     <row r="64" spans="4:98" ht="13.5" customHeight="1">
-      <c r="R64" s="48" t="s">
+      <c r="R64" s="56" t="s">
         <v>166</v>
       </c>
-      <c r="S64" s="44"/>
-      <c r="T64" s="44"/>
-      <c r="U64" s="44"/>
-      <c r="V64" s="44"/>
-      <c r="W64" s="44"/>
-      <c r="AH64" s="44"/>
-      <c r="AI64" s="44"/>
-      <c r="AJ64" s="44"/>
-      <c r="AK64" s="44"/>
-      <c r="AL64" s="44"/>
-      <c r="AM64" s="44"/>
+      <c r="S64" s="52"/>
+      <c r="T64" s="52"/>
+      <c r="U64" s="52"/>
+      <c r="V64" s="52"/>
+      <c r="W64" s="52"/>
+      <c r="AH64" s="52"/>
+      <c r="AI64" s="52"/>
+      <c r="AJ64" s="52"/>
+      <c r="AK64" s="52"/>
+      <c r="AL64" s="52"/>
+      <c r="AM64" s="52"/>
       <c r="AN64" s="29"/>
       <c r="AO64" s="29"/>
       <c r="AP64" s="29"/>
@@ -13966,26 +15645,26 @@
       <c r="CT64" s="29"/>
     </row>
     <row r="65" spans="1:98" ht="13.5" customHeight="1">
-      <c r="D65" s="47" t="s">
+      <c r="D65" s="53" t="s">
         <v>155</v>
       </c>
-      <c r="E65" s="49"/>
-      <c r="F65" s="46"/>
-      <c r="G65" s="46"/>
-      <c r="H65" s="46"/>
-      <c r="I65" s="46"/>
-      <c r="R65" s="44"/>
-      <c r="S65" s="44"/>
-      <c r="T65" s="44"/>
-      <c r="U65" s="44"/>
-      <c r="V65" s="44"/>
-      <c r="W65" s="44"/>
-      <c r="AH65" s="44"/>
-      <c r="AI65" s="44"/>
-      <c r="AJ65" s="44"/>
-      <c r="AK65" s="44"/>
-      <c r="AL65" s="44"/>
-      <c r="AM65" s="44"/>
+      <c r="E65" s="58"/>
+      <c r="F65" s="54"/>
+      <c r="G65" s="54"/>
+      <c r="H65" s="54"/>
+      <c r="I65" s="54"/>
+      <c r="R65" s="52"/>
+      <c r="S65" s="52"/>
+      <c r="T65" s="52"/>
+      <c r="U65" s="52"/>
+      <c r="V65" s="52"/>
+      <c r="W65" s="52"/>
+      <c r="AH65" s="52"/>
+      <c r="AI65" s="52"/>
+      <c r="AJ65" s="52"/>
+      <c r="AK65" s="52"/>
+      <c r="AL65" s="52"/>
+      <c r="AM65" s="52"/>
       <c r="AN65" s="29"/>
       <c r="AO65" s="29"/>
       <c r="AP65" s="29"/>
@@ -13993,14 +15672,14 @@
       <c r="AR65" s="29"/>
       <c r="AS65" s="29"/>
       <c r="AT65" s="29"/>
-      <c r="AZ65" s="47" t="s">
+      <c r="AZ65" s="53" t="s">
         <v>155</v>
       </c>
-      <c r="BA65" s="49"/>
-      <c r="BB65" s="46"/>
-      <c r="BC65" s="46"/>
-      <c r="BD65" s="46"/>
-      <c r="BE65" s="46"/>
+      <c r="BA65" s="58"/>
+      <c r="BB65" s="54"/>
+      <c r="BC65" s="54"/>
+      <c r="BD65" s="54"/>
+      <c r="BE65" s="54"/>
       <c r="CL65" s="30"/>
       <c r="CM65" s="31"/>
       <c r="CN65" s="29"/>
@@ -14012,24 +15691,24 @@
       <c r="CT65" s="29"/>
     </row>
     <row r="66" spans="1:98" ht="13.5" customHeight="1">
-      <c r="D66" s="49"/>
-      <c r="E66" s="49"/>
-      <c r="F66" s="46"/>
-      <c r="G66" s="46"/>
-      <c r="H66" s="46"/>
-      <c r="I66" s="46"/>
-      <c r="R66" s="44"/>
-      <c r="S66" s="44"/>
-      <c r="T66" s="44"/>
-      <c r="U66" s="44"/>
-      <c r="V66" s="44"/>
-      <c r="W66" s="44"/>
-      <c r="AH66" s="44"/>
-      <c r="AI66" s="44"/>
-      <c r="AJ66" s="44"/>
-      <c r="AK66" s="44"/>
-      <c r="AL66" s="44"/>
-      <c r="AM66" s="44"/>
+      <c r="D66" s="58"/>
+      <c r="E66" s="58"/>
+      <c r="F66" s="54"/>
+      <c r="G66" s="54"/>
+      <c r="H66" s="54"/>
+      <c r="I66" s="54"/>
+      <c r="R66" s="52"/>
+      <c r="S66" s="52"/>
+      <c r="T66" s="52"/>
+      <c r="U66" s="52"/>
+      <c r="V66" s="52"/>
+      <c r="W66" s="52"/>
+      <c r="AH66" s="52"/>
+      <c r="AI66" s="52"/>
+      <c r="AJ66" s="52"/>
+      <c r="AK66" s="52"/>
+      <c r="AL66" s="52"/>
+      <c r="AM66" s="52"/>
       <c r="AN66" s="29"/>
       <c r="AO66" s="29"/>
       <c r="AP66" s="29"/>
@@ -14037,12 +15716,12 @@
       <c r="AR66" s="29"/>
       <c r="AS66" s="29"/>
       <c r="AT66" s="29"/>
-      <c r="AZ66" s="49"/>
-      <c r="BA66" s="49"/>
-      <c r="BB66" s="46"/>
-      <c r="BC66" s="46"/>
-      <c r="BD66" s="46"/>
-      <c r="BE66" s="46"/>
+      <c r="AZ66" s="58"/>
+      <c r="BA66" s="58"/>
+      <c r="BB66" s="54"/>
+      <c r="BC66" s="54"/>
+      <c r="BD66" s="54"/>
+      <c r="BE66" s="54"/>
       <c r="CL66" s="31"/>
       <c r="CM66" s="31"/>
       <c r="CN66" s="29"/>
@@ -14054,12 +15733,12 @@
       <c r="CT66" s="29"/>
     </row>
     <row r="67" spans="1:98" ht="13.5" customHeight="1">
-      <c r="R67" s="44"/>
-      <c r="S67" s="44"/>
-      <c r="T67" s="44"/>
-      <c r="U67" s="44"/>
-      <c r="V67" s="44"/>
-      <c r="W67" s="44"/>
+      <c r="R67" s="52"/>
+      <c r="S67" s="52"/>
+      <c r="T67" s="52"/>
+      <c r="U67" s="52"/>
+      <c r="V67" s="52"/>
+      <c r="W67" s="52"/>
       <c r="AJ67" s="29"/>
       <c r="AK67" s="29"/>
       <c r="AL67" s="29"/>
@@ -14091,11 +15770,11 @@
       <c r="AP68" s="29"/>
       <c r="AQ68" s="29"/>
       <c r="AR68" s="29"/>
-      <c r="AS68" s="46" t="s">
+      <c r="AS68" s="54" t="s">
         <v>204</v>
       </c>
-      <c r="AT68" s="46"/>
-      <c r="AU68" s="46"/>
+      <c r="AT68" s="54"/>
+      <c r="AU68" s="54"/>
       <c r="CL68" s="29"/>
       <c r="CM68" s="29"/>
       <c r="CN68" s="29"/>
@@ -14116,9 +15795,9 @@
       <c r="AP69" s="29"/>
       <c r="AQ69" s="29"/>
       <c r="AR69" s="29"/>
-      <c r="AS69" s="46"/>
-      <c r="AT69" s="46"/>
-      <c r="AU69" s="46"/>
+      <c r="AS69" s="54"/>
+      <c r="AT69" s="54"/>
+      <c r="AU69" s="54"/>
       <c r="BU69" s="30"/>
       <c r="BV69" s="31"/>
       <c r="BW69" s="29"/>
@@ -14164,26 +15843,26 @@
       <c r="CT70" s="29"/>
     </row>
     <row r="71" spans="1:98">
-      <c r="R71" s="47" t="s">
+      <c r="R71" s="53" t="s">
         <v>181</v>
       </c>
-      <c r="S71" s="46"/>
-      <c r="T71" s="46"/>
-      <c r="U71" s="46"/>
-      <c r="V71" s="46"/>
-      <c r="W71" s="46"/>
-      <c r="AH71" s="54" t="s">
+      <c r="S71" s="54"/>
+      <c r="T71" s="54"/>
+      <c r="U71" s="54"/>
+      <c r="V71" s="54"/>
+      <c r="W71" s="54"/>
+      <c r="AH71" s="65" t="s">
         <v>183</v>
       </c>
-      <c r="AI71" s="44"/>
-      <c r="AJ71" s="44"/>
-      <c r="AK71" s="44"/>
-      <c r="AL71" s="44"/>
-      <c r="AM71" s="44"/>
+      <c r="AI71" s="52"/>
+      <c r="AJ71" s="52"/>
+      <c r="AK71" s="52"/>
+      <c r="AL71" s="52"/>
+      <c r="AM71" s="52"/>
       <c r="AN71" s="29"/>
       <c r="AO71" s="29"/>
       <c r="AP71" s="29"/>
-      <c r="AQ71" s="45" t="s">
+      <c r="AQ71" s="55" t="s">
         <v>201</v>
       </c>
       <c r="AR71" s="29"/>
@@ -14200,41 +15879,41 @@
       <c r="CT71" s="29"/>
     </row>
     <row r="72" spans="1:98" ht="13.5" customHeight="1">
-      <c r="D72" s="47" t="s">
+      <c r="D72" s="53" t="s">
         <v>157</v>
       </c>
-      <c r="E72" s="49"/>
-      <c r="F72" s="46"/>
-      <c r="G72" s="46"/>
-      <c r="H72" s="46"/>
-      <c r="I72" s="46"/>
-      <c r="R72" s="46"/>
-      <c r="S72" s="46"/>
-      <c r="T72" s="46"/>
-      <c r="U72" s="46"/>
-      <c r="V72" s="46"/>
-      <c r="W72" s="46"/>
-      <c r="AH72" s="44"/>
-      <c r="AI72" s="44"/>
-      <c r="AJ72" s="44"/>
-      <c r="AK72" s="44"/>
-      <c r="AL72" s="44"/>
-      <c r="AM72" s="44"/>
+      <c r="E72" s="58"/>
+      <c r="F72" s="54"/>
+      <c r="G72" s="54"/>
+      <c r="H72" s="54"/>
+      <c r="I72" s="54"/>
+      <c r="R72" s="54"/>
+      <c r="S72" s="54"/>
+      <c r="T72" s="54"/>
+      <c r="U72" s="54"/>
+      <c r="V72" s="54"/>
+      <c r="W72" s="54"/>
+      <c r="AH72" s="52"/>
+      <c r="AI72" s="52"/>
+      <c r="AJ72" s="52"/>
+      <c r="AK72" s="52"/>
+      <c r="AL72" s="52"/>
+      <c r="AM72" s="52"/>
       <c r="AN72" s="29"/>
       <c r="AO72" s="29"/>
       <c r="AP72" s="29"/>
-      <c r="AQ72" s="46"/>
+      <c r="AQ72" s="54"/>
       <c r="AR72" s="29"/>
       <c r="AS72" s="29"/>
       <c r="AT72" s="29"/>
-      <c r="AZ72" s="47" t="s">
+      <c r="AZ72" s="53" t="s">
         <v>157</v>
       </c>
-      <c r="BA72" s="49"/>
-      <c r="BB72" s="46"/>
-      <c r="BC72" s="46"/>
-      <c r="BD72" s="46"/>
-      <c r="BE72" s="46"/>
+      <c r="BA72" s="58"/>
+      <c r="BB72" s="54"/>
+      <c r="BC72" s="54"/>
+      <c r="BD72" s="54"/>
+      <c r="BE72" s="54"/>
       <c r="CL72" s="30"/>
       <c r="CM72" s="31"/>
       <c r="CN72" s="29"/>
@@ -14246,24 +15925,24 @@
       <c r="CT72" s="29"/>
     </row>
     <row r="73" spans="1:98" ht="13.5" customHeight="1">
-      <c r="D73" s="49"/>
-      <c r="E73" s="49"/>
-      <c r="F73" s="46"/>
-      <c r="G73" s="46"/>
-      <c r="H73" s="46"/>
-      <c r="I73" s="46"/>
-      <c r="R73" s="46"/>
-      <c r="S73" s="46"/>
-      <c r="T73" s="46"/>
-      <c r="U73" s="46"/>
-      <c r="V73" s="46"/>
-      <c r="W73" s="46"/>
-      <c r="AH73" s="44"/>
-      <c r="AI73" s="44"/>
-      <c r="AJ73" s="44"/>
-      <c r="AK73" s="44"/>
-      <c r="AL73" s="44"/>
-      <c r="AM73" s="44"/>
+      <c r="D73" s="58"/>
+      <c r="E73" s="58"/>
+      <c r="F73" s="54"/>
+      <c r="G73" s="54"/>
+      <c r="H73" s="54"/>
+      <c r="I73" s="54"/>
+      <c r="R73" s="54"/>
+      <c r="S73" s="54"/>
+      <c r="T73" s="54"/>
+      <c r="U73" s="54"/>
+      <c r="V73" s="54"/>
+      <c r="W73" s="54"/>
+      <c r="AH73" s="52"/>
+      <c r="AI73" s="52"/>
+      <c r="AJ73" s="52"/>
+      <c r="AK73" s="52"/>
+      <c r="AL73" s="52"/>
+      <c r="AM73" s="52"/>
       <c r="AN73" s="29"/>
       <c r="AO73" s="29"/>
       <c r="AP73" s="29"/>
@@ -14271,18 +15950,18 @@
       <c r="AR73" s="29"/>
       <c r="AS73" s="29"/>
       <c r="AT73" s="29"/>
-      <c r="AZ73" s="49"/>
-      <c r="BA73" s="49"/>
-      <c r="BB73" s="46"/>
-      <c r="BC73" s="46"/>
-      <c r="BD73" s="46"/>
-      <c r="BE73" s="46"/>
-      <c r="BW73" s="56" t="s">
+      <c r="AZ73" s="58"/>
+      <c r="BA73" s="58"/>
+      <c r="BB73" s="54"/>
+      <c r="BC73" s="54"/>
+      <c r="BD73" s="54"/>
+      <c r="BE73" s="54"/>
+      <c r="BW73" s="60" t="s">
         <v>191</v>
       </c>
-      <c r="BX73" s="44"/>
-      <c r="BY73" s="44"/>
-      <c r="BZ73" s="44"/>
+      <c r="BX73" s="52"/>
+      <c r="BY73" s="52"/>
+      <c r="BZ73" s="52"/>
       <c r="CL73" s="31"/>
       <c r="CM73" s="31"/>
       <c r="CN73" s="29"/>
@@ -14294,18 +15973,18 @@
       <c r="CT73" s="29"/>
     </row>
     <row r="74" spans="1:98" ht="13.5" customHeight="1">
-      <c r="R74" s="46"/>
-      <c r="S74" s="46"/>
-      <c r="T74" s="46"/>
-      <c r="U74" s="46"/>
-      <c r="V74" s="46"/>
-      <c r="W74" s="46"/>
-      <c r="AH74" s="44"/>
-      <c r="AI74" s="44"/>
-      <c r="AJ74" s="44"/>
-      <c r="AK74" s="44"/>
-      <c r="AL74" s="44"/>
-      <c r="AM74" s="44"/>
+      <c r="R74" s="54"/>
+      <c r="S74" s="54"/>
+      <c r="T74" s="54"/>
+      <c r="U74" s="54"/>
+      <c r="V74" s="54"/>
+      <c r="W74" s="54"/>
+      <c r="AH74" s="52"/>
+      <c r="AI74" s="52"/>
+      <c r="AJ74" s="52"/>
+      <c r="AK74" s="52"/>
+      <c r="AL74" s="52"/>
+      <c r="AM74" s="52"/>
       <c r="AN74" s="29"/>
       <c r="AO74" s="29"/>
       <c r="AP74" s="29"/>
@@ -14313,10 +15992,10 @@
       <c r="AR74" s="29"/>
       <c r="AS74" s="29"/>
       <c r="AT74" s="29"/>
-      <c r="BW74" s="44"/>
-      <c r="BX74" s="44"/>
-      <c r="BY74" s="44"/>
-      <c r="BZ74" s="44"/>
+      <c r="BW74" s="52"/>
+      <c r="BX74" s="52"/>
+      <c r="BY74" s="52"/>
+      <c r="BZ74" s="52"/>
       <c r="CL74" s="29"/>
       <c r="CM74" s="29"/>
       <c r="CN74" s="29"/>
@@ -14350,11 +16029,11 @@
       <c r="CT75" s="29"/>
     </row>
     <row r="76" spans="1:98" ht="13.5" customHeight="1">
-      <c r="AC76" s="46" t="s">
+      <c r="AC76" s="54" t="s">
         <v>204</v>
       </c>
-      <c r="AD76" s="46"/>
-      <c r="AE76" s="46"/>
+      <c r="AD76" s="54"/>
+      <c r="AE76" s="54"/>
       <c r="AJ76" s="29"/>
       <c r="AK76" s="29"/>
       <c r="AL76" s="29"/>
@@ -14366,15 +16045,15 @@
       <c r="AR76" s="29"/>
       <c r="AS76" s="29"/>
       <c r="AT76" s="29"/>
-      <c r="BU76" s="48" t="s">
+      <c r="BU76" s="56" t="s">
         <v>198</v>
       </c>
-      <c r="BV76" s="46"/>
-      <c r="BW76" s="46"/>
-      <c r="BX76" s="46"/>
-      <c r="BY76" s="46"/>
-      <c r="BZ76" s="46"/>
-      <c r="CA76" s="46"/>
+      <c r="BV76" s="54"/>
+      <c r="BW76" s="54"/>
+      <c r="BX76" s="54"/>
+      <c r="BY76" s="54"/>
+      <c r="BZ76" s="54"/>
+      <c r="CA76" s="54"/>
       <c r="CL76" s="29"/>
       <c r="CM76" s="29"/>
       <c r="CN76" s="29"/>
@@ -14386,9 +16065,9 @@
       <c r="CT76" s="29"/>
     </row>
     <row r="77" spans="1:98">
-      <c r="AC77" s="46"/>
-      <c r="AD77" s="46"/>
-      <c r="AE77" s="46"/>
+      <c r="AC77" s="54"/>
+      <c r="AD77" s="54"/>
+      <c r="AE77" s="54"/>
       <c r="AJ77" s="29"/>
       <c r="AK77" s="29"/>
       <c r="AL77" s="29"/>
@@ -14400,13 +16079,13 @@
       <c r="AR77" s="29"/>
       <c r="AS77" s="29"/>
       <c r="AT77" s="29"/>
-      <c r="BU77" s="46"/>
-      <c r="BV77" s="46"/>
-      <c r="BW77" s="46"/>
-      <c r="BX77" s="46"/>
-      <c r="BY77" s="46"/>
-      <c r="BZ77" s="46"/>
-      <c r="CA77" s="46"/>
+      <c r="BU77" s="54"/>
+      <c r="BV77" s="54"/>
+      <c r="BW77" s="54"/>
+      <c r="BX77" s="54"/>
+      <c r="BY77" s="54"/>
+      <c r="BZ77" s="54"/>
+      <c r="CA77" s="54"/>
       <c r="CL77" s="29"/>
       <c r="CM77" s="29"/>
       <c r="CN77" s="29"/>
@@ -14418,31 +16097,31 @@
       <c r="CT77" s="29"/>
     </row>
     <row r="78" spans="1:98">
-      <c r="AH78" s="54" t="s">
+      <c r="AH78" s="65" t="s">
         <v>184</v>
       </c>
-      <c r="AI78" s="44"/>
-      <c r="AJ78" s="44"/>
-      <c r="AK78" s="44"/>
-      <c r="AL78" s="44"/>
-      <c r="AM78" s="44"/>
+      <c r="AI78" s="52"/>
+      <c r="AJ78" s="52"/>
+      <c r="AK78" s="52"/>
+      <c r="AL78" s="52"/>
+      <c r="AM78" s="52"/>
       <c r="AN78" s="29"/>
       <c r="AO78" s="29"/>
       <c r="AP78" s="29"/>
       <c r="AQ78" s="29"/>
       <c r="AR78" s="29"/>
-      <c r="AS78" s="46" t="s">
+      <c r="AS78" s="54" t="s">
         <v>203</v>
       </c>
-      <c r="AT78" s="46"/>
-      <c r="AU78" s="46"/>
-      <c r="BU78" s="46"/>
-      <c r="BV78" s="46"/>
-      <c r="BW78" s="46"/>
-      <c r="BX78" s="46"/>
-      <c r="BY78" s="46"/>
-      <c r="BZ78" s="46"/>
-      <c r="CA78" s="46"/>
+      <c r="AT78" s="54"/>
+      <c r="AU78" s="54"/>
+      <c r="BU78" s="54"/>
+      <c r="BV78" s="54"/>
+      <c r="BW78" s="54"/>
+      <c r="BX78" s="54"/>
+      <c r="BY78" s="54"/>
+      <c r="BZ78" s="54"/>
+      <c r="CA78" s="54"/>
       <c r="CL78" s="29"/>
       <c r="CM78" s="29"/>
       <c r="CN78" s="29"/>
@@ -14454,44 +16133,44 @@
       <c r="CT78" s="29"/>
     </row>
     <row r="79" spans="1:98">
-      <c r="N79" s="45" t="s">
+      <c r="N79" s="55" t="s">
         <v>202</v>
       </c>
-      <c r="R79" s="48" t="s">
+      <c r="R79" s="56" t="s">
         <v>167</v>
       </c>
-      <c r="S79" s="44"/>
-      <c r="T79" s="44"/>
-      <c r="U79" s="44"/>
-      <c r="V79" s="44"/>
-      <c r="W79" s="44"/>
-      <c r="AA79" s="45" t="s">
+      <c r="S79" s="52"/>
+      <c r="T79" s="52"/>
+      <c r="U79" s="52"/>
+      <c r="V79" s="52"/>
+      <c r="W79" s="52"/>
+      <c r="AA79" s="55" t="s">
         <v>202</v>
       </c>
-      <c r="AH79" s="44"/>
-      <c r="AI79" s="44"/>
-      <c r="AJ79" s="44"/>
-      <c r="AK79" s="44"/>
-      <c r="AL79" s="44"/>
-      <c r="AM79" s="44"/>
+      <c r="AH79" s="52"/>
+      <c r="AI79" s="52"/>
+      <c r="AJ79" s="52"/>
+      <c r="AK79" s="52"/>
+      <c r="AL79" s="52"/>
+      <c r="AM79" s="52"/>
       <c r="AN79" s="29"/>
       <c r="AO79" s="29"/>
       <c r="AP79" s="29"/>
       <c r="AQ79" s="29"/>
       <c r="AR79" s="29"/>
-      <c r="AS79" s="46"/>
-      <c r="AT79" s="46"/>
-      <c r="AU79" s="46"/>
-      <c r="BD79" s="45" t="s">
+      <c r="AS79" s="54"/>
+      <c r="AT79" s="54"/>
+      <c r="AU79" s="54"/>
+      <c r="BD79" s="55" t="s">
         <v>201</v>
       </c>
-      <c r="BU79" s="46"/>
-      <c r="BV79" s="46"/>
-      <c r="BW79" s="46"/>
-      <c r="BX79" s="46"/>
-      <c r="BY79" s="46"/>
-      <c r="BZ79" s="46"/>
-      <c r="CA79" s="46"/>
+      <c r="BU79" s="54"/>
+      <c r="BV79" s="54"/>
+      <c r="BW79" s="54"/>
+      <c r="BX79" s="54"/>
+      <c r="BY79" s="54"/>
+      <c r="BZ79" s="54"/>
+      <c r="CA79" s="54"/>
       <c r="CL79" s="29"/>
       <c r="CM79" s="29"/>
       <c r="CN79" s="29"/>
@@ -14503,28 +16182,28 @@
       <c r="CT79" s="29"/>
     </row>
     <row r="80" spans="1:98" ht="13.5" customHeight="1">
-      <c r="A80" s="47" t="s">
+      <c r="A80" s="53" t="s">
         <v>158</v>
       </c>
-      <c r="B80" s="46"/>
-      <c r="C80" s="46"/>
-      <c r="D80" s="46"/>
+      <c r="B80" s="54"/>
+      <c r="C80" s="54"/>
+      <c r="D80" s="54"/>
       <c r="E80" s="32"/>
       <c r="F80" s="32"/>
-      <c r="N80" s="46"/>
-      <c r="R80" s="44"/>
-      <c r="S80" s="44"/>
-      <c r="T80" s="44"/>
-      <c r="U80" s="44"/>
-      <c r="V80" s="44"/>
-      <c r="W80" s="44"/>
-      <c r="AA80" s="46"/>
-      <c r="AH80" s="44"/>
-      <c r="AI80" s="44"/>
-      <c r="AJ80" s="44"/>
-      <c r="AK80" s="44"/>
-      <c r="AL80" s="44"/>
-      <c r="AM80" s="44"/>
+      <c r="N80" s="54"/>
+      <c r="R80" s="52"/>
+      <c r="S80" s="52"/>
+      <c r="T80" s="52"/>
+      <c r="U80" s="52"/>
+      <c r="V80" s="52"/>
+      <c r="W80" s="52"/>
+      <c r="AA80" s="54"/>
+      <c r="AH80" s="52"/>
+      <c r="AI80" s="52"/>
+      <c r="AJ80" s="52"/>
+      <c r="AK80" s="52"/>
+      <c r="AL80" s="52"/>
+      <c r="AM80" s="52"/>
       <c r="AN80" s="29"/>
       <c r="AO80" s="29"/>
       <c r="AP80" s="29"/>
@@ -14532,13 +16211,13 @@
       <c r="AR80" s="29"/>
       <c r="AS80" s="29"/>
       <c r="AT80" s="29"/>
-      <c r="AZ80" s="47" t="s">
+      <c r="AZ80" s="53" t="s">
         <v>158</v>
       </c>
-      <c r="BA80" s="46"/>
-      <c r="BB80" s="46"/>
-      <c r="BC80" s="46"/>
-      <c r="BD80" s="46"/>
+      <c r="BA80" s="54"/>
+      <c r="BB80" s="54"/>
+      <c r="BC80" s="54"/>
+      <c r="BD80" s="54"/>
       <c r="BE80" s="33"/>
       <c r="CL80" s="30"/>
       <c r="CM80" s="31"/>
@@ -14551,24 +16230,24 @@
       <c r="CT80" s="29"/>
     </row>
     <row r="81" spans="1:99" ht="13.5" customHeight="1">
-      <c r="A81" s="46"/>
-      <c r="B81" s="46"/>
-      <c r="C81" s="46"/>
-      <c r="D81" s="46"/>
+      <c r="A81" s="54"/>
+      <c r="B81" s="54"/>
+      <c r="C81" s="54"/>
+      <c r="D81" s="54"/>
       <c r="E81" s="32"/>
       <c r="F81" s="32"/>
-      <c r="R81" s="44"/>
-      <c r="S81" s="44"/>
-      <c r="T81" s="44"/>
-      <c r="U81" s="44"/>
-      <c r="V81" s="44"/>
-      <c r="W81" s="44"/>
-      <c r="AH81" s="44"/>
-      <c r="AI81" s="44"/>
-      <c r="AJ81" s="44"/>
-      <c r="AK81" s="44"/>
-      <c r="AL81" s="44"/>
-      <c r="AM81" s="44"/>
+      <c r="R81" s="52"/>
+      <c r="S81" s="52"/>
+      <c r="T81" s="52"/>
+      <c r="U81" s="52"/>
+      <c r="V81" s="52"/>
+      <c r="W81" s="52"/>
+      <c r="AH81" s="52"/>
+      <c r="AI81" s="52"/>
+      <c r="AJ81" s="52"/>
+      <c r="AK81" s="52"/>
+      <c r="AL81" s="52"/>
+      <c r="AM81" s="52"/>
       <c r="AN81" s="29"/>
       <c r="AO81" s="29"/>
       <c r="AP81" s="29"/>
@@ -14576,10 +16255,10 @@
       <c r="AR81" s="29"/>
       <c r="AS81" s="29"/>
       <c r="AT81" s="29"/>
-      <c r="AZ81" s="46"/>
-      <c r="BA81" s="46"/>
-      <c r="BB81" s="46"/>
-      <c r="BC81" s="46"/>
+      <c r="AZ81" s="54"/>
+      <c r="BA81" s="54"/>
+      <c r="BB81" s="54"/>
+      <c r="BC81" s="54"/>
       <c r="BD81" s="33"/>
       <c r="BE81" s="33"/>
       <c r="CL81" s="31"/>
@@ -14593,12 +16272,12 @@
       <c r="CT81" s="29"/>
     </row>
     <row r="82" spans="1:99" ht="13.5" customHeight="1">
-      <c r="R82" s="44"/>
-      <c r="S82" s="44"/>
-      <c r="T82" s="44"/>
-      <c r="U82" s="44"/>
-      <c r="V82" s="44"/>
-      <c r="W82" s="44"/>
+      <c r="R82" s="52"/>
+      <c r="S82" s="52"/>
+      <c r="T82" s="52"/>
+      <c r="U82" s="52"/>
+      <c r="V82" s="52"/>
+      <c r="W82" s="52"/>
       <c r="AJ82" s="29"/>
       <c r="AK82" s="29"/>
       <c r="AL82" s="29"/>
@@ -14670,16 +16349,16 @@
       <c r="BZ85" s="29"/>
     </row>
     <row r="86" spans="1:99">
-      <c r="AC86" s="46" t="s">
+      <c r="AC86" s="54" t="s">
         <v>203</v>
       </c>
-      <c r="AD86" s="46"/>
-      <c r="AE86" s="46"/>
+      <c r="AD86" s="54"/>
+      <c r="AE86" s="54"/>
     </row>
     <row r="87" spans="1:99">
-      <c r="AC87" s="46"/>
-      <c r="AD87" s="46"/>
-      <c r="AE87" s="46"/>
+      <c r="AC87" s="54"/>
+      <c r="AD87" s="54"/>
+      <c r="AE87" s="54"/>
       <c r="AY87" s="29"/>
       <c r="AZ87" s="29"/>
       <c r="BA87" s="29"/>
@@ -14738,14 +16417,14 @@
       <c r="CU89" s="29"/>
     </row>
     <row r="90" spans="1:99">
-      <c r="AH90" s="54" t="s">
+      <c r="AH90" s="65" t="s">
         <v>185</v>
       </c>
-      <c r="AI90" s="44"/>
-      <c r="AJ90" s="44"/>
-      <c r="AK90" s="44"/>
-      <c r="AL90" s="44"/>
-      <c r="AM90" s="44"/>
+      <c r="AI90" s="52"/>
+      <c r="AJ90" s="52"/>
+      <c r="AK90" s="52"/>
+      <c r="AL90" s="52"/>
+      <c r="AM90" s="52"/>
       <c r="BC90" s="29"/>
       <c r="BD90" s="29"/>
       <c r="BE90" s="29"/>
@@ -14757,12 +16436,12 @@
       <c r="BK90" s="29"/>
     </row>
     <row r="91" spans="1:99">
-      <c r="AH91" s="44"/>
-      <c r="AI91" s="44"/>
-      <c r="AJ91" s="44"/>
-      <c r="AK91" s="44"/>
-      <c r="AL91" s="44"/>
-      <c r="AM91" s="44"/>
+      <c r="AH91" s="52"/>
+      <c r="AI91" s="52"/>
+      <c r="AJ91" s="52"/>
+      <c r="AK91" s="52"/>
+      <c r="AL91" s="52"/>
+      <c r="AM91" s="52"/>
       <c r="BC91" s="29"/>
       <c r="BD91" s="29"/>
       <c r="BE91" s="29"/>
@@ -14781,12 +16460,12 @@
       <c r="CH91" s="29"/>
     </row>
     <row r="92" spans="1:99">
-      <c r="AH92" s="44"/>
-      <c r="AI92" s="44"/>
-      <c r="AJ92" s="44"/>
-      <c r="AK92" s="44"/>
-      <c r="AL92" s="44"/>
-      <c r="AM92" s="44"/>
+      <c r="AH92" s="52"/>
+      <c r="AI92" s="52"/>
+      <c r="AJ92" s="52"/>
+      <c r="AK92" s="52"/>
+      <c r="AL92" s="52"/>
+      <c r="AM92" s="52"/>
       <c r="BC92" s="29"/>
       <c r="BD92" s="29"/>
       <c r="BE92" s="29"/>
@@ -14798,12 +16477,12 @@
       <c r="BK92" s="29"/>
     </row>
     <row r="93" spans="1:99">
-      <c r="AH93" s="44"/>
-      <c r="AI93" s="44"/>
-      <c r="AJ93" s="44"/>
-      <c r="AK93" s="44"/>
-      <c r="AL93" s="44"/>
-      <c r="AM93" s="44"/>
+      <c r="AH93" s="52"/>
+      <c r="AI93" s="52"/>
+      <c r="AJ93" s="52"/>
+      <c r="AK93" s="52"/>
+      <c r="AL93" s="52"/>
+      <c r="AM93" s="52"/>
       <c r="BC93" s="29"/>
       <c r="BD93" s="29"/>
       <c r="BE93" s="29"/>
@@ -14815,193 +16494,706 @@
       <c r="BK93" s="29"/>
     </row>
     <row r="95" spans="1:99">
-      <c r="BV95" s="48" t="s">
+      <c r="BV95" s="56" t="s">
         <v>196</v>
       </c>
-      <c r="BW95" s="44"/>
-      <c r="BX95" s="44"/>
-      <c r="BY95" s="44"/>
-      <c r="BZ95" s="44"/>
-      <c r="CA95" s="44"/>
-      <c r="CB95" s="44"/>
+      <c r="BW95" s="52"/>
+      <c r="BX95" s="52"/>
+      <c r="BY95" s="52"/>
+      <c r="BZ95" s="52"/>
+      <c r="CA95" s="52"/>
+      <c r="CB95" s="52"/>
     </row>
     <row r="96" spans="1:99">
-      <c r="BV96" s="44"/>
-      <c r="BW96" s="44"/>
-      <c r="BX96" s="44"/>
-      <c r="BY96" s="44"/>
-      <c r="BZ96" s="44"/>
-      <c r="CA96" s="44"/>
-      <c r="CB96" s="44"/>
+      <c r="BV96" s="52"/>
+      <c r="BW96" s="52"/>
+      <c r="BX96" s="52"/>
+      <c r="BY96" s="52"/>
+      <c r="BZ96" s="52"/>
+      <c r="CA96" s="52"/>
+      <c r="CB96" s="52"/>
     </row>
     <row r="97" spans="30:74">
-      <c r="AH97" s="48" t="s">
+      <c r="AH97" s="56" t="s">
         <v>186</v>
       </c>
-      <c r="AI97" s="44"/>
-      <c r="AJ97" s="44"/>
-      <c r="AK97" s="44"/>
-      <c r="AL97" s="44"/>
-      <c r="AM97" s="44"/>
+      <c r="AI97" s="52"/>
+      <c r="AJ97" s="52"/>
+      <c r="AK97" s="52"/>
+      <c r="AL97" s="52"/>
+      <c r="AM97" s="52"/>
     </row>
     <row r="98" spans="30:74">
-      <c r="AH98" s="44"/>
-      <c r="AI98" s="44"/>
-      <c r="AJ98" s="44"/>
-      <c r="AK98" s="44"/>
-      <c r="AL98" s="44"/>
-      <c r="AM98" s="44"/>
+      <c r="AH98" s="52"/>
+      <c r="AI98" s="52"/>
+      <c r="AJ98" s="52"/>
+      <c r="AK98" s="52"/>
+      <c r="AL98" s="52"/>
+      <c r="AM98" s="52"/>
     </row>
     <row r="99" spans="30:74">
-      <c r="AH99" s="44"/>
-      <c r="AI99" s="44"/>
-      <c r="AJ99" s="44"/>
-      <c r="AK99" s="44"/>
-      <c r="AL99" s="44"/>
-      <c r="AM99" s="44"/>
+      <c r="AH99" s="52"/>
+      <c r="AI99" s="52"/>
+      <c r="AJ99" s="52"/>
+      <c r="AK99" s="52"/>
+      <c r="AL99" s="52"/>
+      <c r="AM99" s="52"/>
     </row>
     <row r="100" spans="30:74">
-      <c r="AH100" s="44"/>
-      <c r="AI100" s="44"/>
-      <c r="AJ100" s="44"/>
-      <c r="AK100" s="44"/>
-      <c r="AL100" s="44"/>
-      <c r="AM100" s="44"/>
+      <c r="AH100" s="52"/>
+      <c r="AI100" s="52"/>
+      <c r="AJ100" s="52"/>
+      <c r="AK100" s="52"/>
+      <c r="AL100" s="52"/>
+      <c r="AM100" s="52"/>
     </row>
     <row r="104" spans="30:74">
-      <c r="BS104" s="55" t="s">
+      <c r="BS104" s="59" t="s">
         <v>197</v>
       </c>
-      <c r="BT104" s="44"/>
-      <c r="BU104" s="44"/>
-      <c r="BV104" s="44"/>
+      <c r="BT104" s="52"/>
+      <c r="BU104" s="52"/>
+      <c r="BV104" s="52"/>
     </row>
     <row r="105" spans="30:74">
-      <c r="AD105" s="45" t="s">
+      <c r="AD105" s="55" t="s">
         <v>201</v>
       </c>
-      <c r="AH105" s="51" t="s">
+      <c r="AH105" s="63" t="s">
         <v>187</v>
       </c>
-      <c r="AI105" s="44"/>
-      <c r="AJ105" s="44"/>
-      <c r="AK105" s="44"/>
-      <c r="AL105" s="44"/>
-      <c r="AM105" s="44"/>
-      <c r="BS105" s="44"/>
-      <c r="BT105" s="44"/>
-      <c r="BU105" s="44"/>
-      <c r="BV105" s="44"/>
+      <c r="AI105" s="52"/>
+      <c r="AJ105" s="52"/>
+      <c r="AK105" s="52"/>
+      <c r="AL105" s="52"/>
+      <c r="AM105" s="52"/>
+      <c r="BS105" s="52"/>
+      <c r="BT105" s="52"/>
+      <c r="BU105" s="52"/>
+      <c r="BV105" s="52"/>
     </row>
     <row r="106" spans="30:74">
-      <c r="AD106" s="46"/>
-      <c r="AH106" s="44"/>
-      <c r="AI106" s="44"/>
-      <c r="AJ106" s="44"/>
-      <c r="AK106" s="44"/>
-      <c r="AL106" s="44"/>
-      <c r="AM106" s="44"/>
-      <c r="BS106" s="44"/>
-      <c r="BT106" s="44"/>
-      <c r="BU106" s="44"/>
-      <c r="BV106" s="44"/>
+      <c r="AD106" s="54"/>
+      <c r="AH106" s="52"/>
+      <c r="AI106" s="52"/>
+      <c r="AJ106" s="52"/>
+      <c r="AK106" s="52"/>
+      <c r="AL106" s="52"/>
+      <c r="AM106" s="52"/>
+      <c r="BS106" s="52"/>
+      <c r="BT106" s="52"/>
+      <c r="BU106" s="52"/>
+      <c r="BV106" s="52"/>
     </row>
     <row r="107" spans="30:74">
-      <c r="AH107" s="44"/>
-      <c r="AI107" s="44"/>
-      <c r="AJ107" s="44"/>
-      <c r="AK107" s="44"/>
-      <c r="AL107" s="44"/>
-      <c r="AM107" s="44"/>
-      <c r="BS107" s="44"/>
-      <c r="BT107" s="44"/>
-      <c r="BU107" s="44"/>
-      <c r="BV107" s="44"/>
+      <c r="AH107" s="52"/>
+      <c r="AI107" s="52"/>
+      <c r="AJ107" s="52"/>
+      <c r="AK107" s="52"/>
+      <c r="AL107" s="52"/>
+      <c r="AM107" s="52"/>
+      <c r="BS107" s="52"/>
+      <c r="BT107" s="52"/>
+      <c r="BU107" s="52"/>
+      <c r="BV107" s="52"/>
     </row>
     <row r="108" spans="30:74">
-      <c r="AH108" s="44"/>
-      <c r="AI108" s="44"/>
-      <c r="AJ108" s="44"/>
-      <c r="AK108" s="44"/>
-      <c r="AL108" s="44"/>
-      <c r="AM108" s="44"/>
-    </row>
-    <row r="125" spans="66:79">
-      <c r="BN125" s="45" t="s">
+      <c r="AH108" s="52"/>
+      <c r="AI108" s="52"/>
+      <c r="AJ108" s="52"/>
+      <c r="AK108" s="52"/>
+      <c r="AL108" s="52"/>
+      <c r="AM108" s="52"/>
+    </row>
+    <row r="124" spans="2:79">
+      <c r="B124" s="66" t="s">
+        <v>211</v>
+      </c>
+      <c r="C124" s="66"/>
+      <c r="D124" s="66"/>
+      <c r="E124" s="66"/>
+    </row>
+    <row r="125" spans="2:79">
+      <c r="B125" s="66"/>
+      <c r="C125" s="66"/>
+      <c r="D125" s="66"/>
+      <c r="E125" s="66"/>
+      <c r="BN125" s="55" t="s">
         <v>201</v>
       </c>
-      <c r="CA125" s="45" t="s">
+      <c r="CA125" s="55" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="126" spans="66:79">
-      <c r="BN126" s="46"/>
-      <c r="CA126" s="46"/>
+    <row r="126" spans="2:79">
+      <c r="BN126" s="54"/>
+      <c r="CA126" s="54"/>
+    </row>
+    <row r="128" spans="2:79">
+      <c r="K128" s="56" t="s">
+        <v>159</v>
+      </c>
+      <c r="L128" s="56"/>
+    </row>
+    <row r="129" spans="11:19">
+      <c r="K129" s="56"/>
+      <c r="L129" s="56"/>
+    </row>
+    <row r="131" spans="11:19" ht="15" customHeight="1">
+      <c r="M131" s="38"/>
+      <c r="N131" s="34"/>
+      <c r="O131" s="34"/>
+      <c r="P131" s="34"/>
+      <c r="Q131" s="34"/>
+      <c r="R131" s="34"/>
+      <c r="S131" s="34"/>
+    </row>
+    <row r="132" spans="11:19">
+      <c r="M132" s="34"/>
+      <c r="N132" s="34"/>
+      <c r="O132" s="34"/>
+      <c r="P132" s="34"/>
+      <c r="Q132" s="34"/>
+      <c r="R132" s="34"/>
+      <c r="S132" s="34"/>
+    </row>
+    <row r="135" spans="11:19" ht="15" customHeight="1">
+      <c r="L135" s="56" t="s">
+        <v>212</v>
+      </c>
+      <c r="M135" s="52"/>
+      <c r="N135" s="52"/>
+      <c r="O135" s="37"/>
+      <c r="P135" s="37"/>
+      <c r="Q135" s="37"/>
+    </row>
+    <row r="136" spans="11:19" ht="15" customHeight="1">
+      <c r="L136" s="52"/>
+      <c r="M136" s="52"/>
+      <c r="N136" s="52"/>
+      <c r="O136" s="37"/>
+      <c r="P136" s="37"/>
+      <c r="Q136" s="37"/>
+    </row>
+    <row r="143" spans="11:19">
+      <c r="L143" s="53" t="s">
+        <v>169</v>
+      </c>
+      <c r="M143" s="53"/>
+      <c r="N143" s="53"/>
+      <c r="O143" s="53"/>
+      <c r="P143" s="53"/>
+      <c r="Q143" s="53"/>
+    </row>
+    <row r="144" spans="11:19">
+      <c r="L144" s="53"/>
+      <c r="M144" s="53"/>
+      <c r="N144" s="53"/>
+      <c r="O144" s="53"/>
+      <c r="P144" s="53"/>
+      <c r="Q144" s="53"/>
+    </row>
+    <row r="150" spans="4:20" ht="15" customHeight="1">
+      <c r="S150" s="37"/>
+      <c r="T150" s="37"/>
+    </row>
+    <row r="151" spans="4:20" ht="15" customHeight="1">
+      <c r="S151" s="37"/>
+      <c r="T151" s="37"/>
+    </row>
+    <row r="154" spans="4:20">
+      <c r="D154" s="56" t="s">
+        <v>200</v>
+      </c>
+      <c r="E154" s="52"/>
+      <c r="F154" s="52"/>
+      <c r="Q154" s="56" t="s">
+        <v>199</v>
+      </c>
+      <c r="R154" s="52"/>
+      <c r="S154" s="52"/>
+    </row>
+    <row r="155" spans="4:20">
+      <c r="D155" s="52"/>
+      <c r="E155" s="52"/>
+      <c r="F155" s="52"/>
+      <c r="Q155" s="52"/>
+      <c r="R155" s="52"/>
+      <c r="S155" s="52"/>
+    </row>
+    <row r="157" spans="4:20">
+      <c r="I157" s="56" t="s">
+        <v>164</v>
+      </c>
+      <c r="J157" s="54"/>
+      <c r="K157" s="54"/>
+      <c r="L157" s="54"/>
+      <c r="M157" s="54"/>
+      <c r="N157" s="54"/>
+    </row>
+    <row r="158" spans="4:20" ht="15" customHeight="1">
+      <c r="I158" s="54"/>
+      <c r="J158" s="54"/>
+      <c r="K158" s="54"/>
+      <c r="L158" s="54"/>
+      <c r="M158" s="54"/>
+      <c r="N158" s="54"/>
+      <c r="O158" s="37"/>
+      <c r="P158" s="39"/>
+      <c r="Q158" s="36"/>
+      <c r="R158" s="36"/>
+      <c r="S158" s="36"/>
+      <c r="T158" s="36"/>
+    </row>
+    <row r="159" spans="4:20" ht="15" customHeight="1">
+      <c r="I159" s="54"/>
+      <c r="J159" s="54"/>
+      <c r="K159" s="54"/>
+      <c r="L159" s="54"/>
+      <c r="M159" s="54"/>
+      <c r="N159" s="54"/>
+      <c r="O159" s="39"/>
+      <c r="P159" s="39"/>
+      <c r="Q159" s="36"/>
+      <c r="R159" s="36"/>
+      <c r="S159" s="36"/>
+      <c r="T159" s="36"/>
+    </row>
+    <row r="160" spans="4:20" ht="15" customHeight="1">
+      <c r="I160" s="54"/>
+      <c r="J160" s="54"/>
+      <c r="K160" s="54"/>
+      <c r="L160" s="54"/>
+      <c r="M160" s="54"/>
+      <c r="N160" s="54"/>
+    </row>
+    <row r="161" spans="7:20" ht="15" customHeight="1"/>
+    <row r="162" spans="7:20" ht="15" customHeight="1"/>
+    <row r="163" spans="7:20" ht="15" customHeight="1"/>
+    <row r="164" spans="7:20" ht="15" customHeight="1">
+      <c r="I164" s="56" t="s">
+        <v>163</v>
+      </c>
+      <c r="J164" s="56"/>
+      <c r="K164" s="56"/>
+      <c r="L164" s="56"/>
+      <c r="M164" s="56"/>
+      <c r="N164" s="56"/>
+    </row>
+    <row r="165" spans="7:20" ht="15" customHeight="1">
+      <c r="G165" s="37"/>
+      <c r="H165" s="37"/>
+      <c r="I165" s="56"/>
+      <c r="J165" s="56"/>
+      <c r="K165" s="56"/>
+      <c r="L165" s="56"/>
+      <c r="M165" s="56"/>
+      <c r="N165" s="56"/>
+    </row>
+    <row r="166" spans="7:20" ht="15" customHeight="1">
+      <c r="G166" s="37"/>
+      <c r="H166" s="37"/>
+      <c r="I166" s="52"/>
+      <c r="J166" s="52"/>
+      <c r="K166" s="52"/>
+      <c r="L166" s="52"/>
+      <c r="M166" s="52"/>
+      <c r="N166" s="52"/>
+    </row>
+    <row r="167" spans="7:20" ht="15" customHeight="1">
+      <c r="I167" s="52"/>
+      <c r="J167" s="52"/>
+      <c r="K167" s="52"/>
+      <c r="L167" s="52"/>
+      <c r="M167" s="52"/>
+      <c r="N167" s="52"/>
+    </row>
+    <row r="168" spans="7:20" ht="15" customHeight="1"/>
+    <row r="169" spans="7:20" ht="15" customHeight="1"/>
+    <row r="170" spans="7:20" ht="15" customHeight="1">
+      <c r="J170" s="62" t="s">
+        <v>165</v>
+      </c>
+      <c r="K170" s="52"/>
+      <c r="L170" s="52"/>
+      <c r="M170" s="52"/>
+    </row>
+    <row r="171" spans="7:20" ht="15" customHeight="1">
+      <c r="G171" s="37"/>
+      <c r="J171" s="52"/>
+      <c r="K171" s="52"/>
+      <c r="L171" s="52"/>
+      <c r="M171" s="52"/>
+      <c r="P171" s="37"/>
+      <c r="Q171" s="37"/>
+      <c r="R171" s="37"/>
+      <c r="S171" s="37"/>
+      <c r="T171" s="37"/>
+    </row>
+    <row r="172" spans="7:20" ht="15" customHeight="1">
+      <c r="G172" s="37"/>
+      <c r="J172" s="52"/>
+      <c r="K172" s="52"/>
+      <c r="L172" s="52"/>
+      <c r="M172" s="52"/>
+      <c r="P172" s="37"/>
+      <c r="Q172" s="37"/>
+      <c r="R172" s="37"/>
+      <c r="S172" s="37"/>
+      <c r="T172" s="37"/>
+    </row>
+    <row r="173" spans="7:20" ht="15" customHeight="1">
+      <c r="J173" s="52"/>
+      <c r="K173" s="52"/>
+      <c r="L173" s="52"/>
+      <c r="M173" s="52"/>
+    </row>
+    <row r="174" spans="7:20" ht="15" customHeight="1"/>
+    <row r="175" spans="7:20" ht="15" customHeight="1"/>
+    <row r="176" spans="7:20" ht="15" customHeight="1">
+      <c r="I176" s="56" t="s">
+        <v>166</v>
+      </c>
+      <c r="J176" s="52"/>
+      <c r="K176" s="52"/>
+      <c r="L176" s="52"/>
+      <c r="M176" s="52"/>
+      <c r="N176" s="52"/>
+    </row>
+    <row r="177" spans="3:23" ht="15" customHeight="1">
+      <c r="I177" s="52"/>
+      <c r="J177" s="52"/>
+      <c r="K177" s="52"/>
+      <c r="L177" s="52"/>
+      <c r="M177" s="52"/>
+      <c r="N177" s="52"/>
+    </row>
+    <row r="178" spans="3:23" ht="15" customHeight="1">
+      <c r="I178" s="52"/>
+      <c r="J178" s="52"/>
+      <c r="K178" s="52"/>
+      <c r="L178" s="52"/>
+      <c r="M178" s="52"/>
+      <c r="N178" s="52"/>
+    </row>
+    <row r="179" spans="3:23" ht="15" customHeight="1">
+      <c r="I179" s="52"/>
+      <c r="J179" s="52"/>
+      <c r="K179" s="52"/>
+      <c r="L179" s="52"/>
+      <c r="M179" s="52"/>
+      <c r="N179" s="52"/>
+    </row>
+    <row r="180" spans="3:23" ht="15" customHeight="1"/>
+    <row r="181" spans="3:23" ht="15" customHeight="1"/>
+    <row r="182" spans="3:23" ht="15" customHeight="1">
+      <c r="Q182" s="36"/>
+      <c r="R182" s="36"/>
+      <c r="S182" s="36"/>
+      <c r="T182" s="36"/>
+      <c r="U182" s="36"/>
+      <c r="V182" s="36"/>
+      <c r="W182" s="36"/>
+    </row>
+    <row r="183" spans="3:23" ht="15" customHeight="1">
+      <c r="I183" s="53" t="s">
+        <v>181</v>
+      </c>
+      <c r="J183" s="54"/>
+      <c r="K183" s="54"/>
+      <c r="L183" s="54"/>
+      <c r="M183" s="54"/>
+      <c r="N183" s="54"/>
+      <c r="Q183" s="36"/>
+      <c r="R183" s="36"/>
+      <c r="S183" s="36"/>
+      <c r="T183" s="36"/>
+      <c r="U183" s="36"/>
+      <c r="V183" s="36"/>
+      <c r="W183" s="36"/>
+    </row>
+    <row r="184" spans="3:23" ht="15" customHeight="1">
+      <c r="I184" s="54"/>
+      <c r="J184" s="54"/>
+      <c r="K184" s="54"/>
+      <c r="L184" s="54"/>
+      <c r="M184" s="54"/>
+      <c r="N184" s="54"/>
+      <c r="Q184" s="36"/>
+      <c r="R184" s="36"/>
+      <c r="S184" s="36"/>
+      <c r="T184" s="36"/>
+      <c r="U184" s="36"/>
+      <c r="V184" s="36"/>
+      <c r="W184" s="36"/>
+    </row>
+    <row r="185" spans="3:23" ht="15" customHeight="1">
+      <c r="C185" s="36"/>
+      <c r="D185" s="36"/>
+      <c r="E185" s="36"/>
+      <c r="F185" s="36"/>
+      <c r="G185" s="36"/>
+      <c r="I185" s="54"/>
+      <c r="J185" s="54"/>
+      <c r="K185" s="54"/>
+      <c r="L185" s="54"/>
+      <c r="M185" s="54"/>
+      <c r="N185" s="54"/>
+      <c r="Q185" s="36"/>
+      <c r="R185" s="36"/>
+      <c r="S185" s="36"/>
+      <c r="T185" s="36"/>
+      <c r="U185" s="36"/>
+      <c r="V185" s="36"/>
+      <c r="W185" s="36"/>
+    </row>
+    <row r="186" spans="3:23" ht="15" customHeight="1">
+      <c r="C186" s="36"/>
+      <c r="D186" s="36"/>
+      <c r="E186" s="36"/>
+      <c r="F186" s="36"/>
+      <c r="G186" s="36"/>
+      <c r="I186" s="54"/>
+      <c r="J186" s="54"/>
+      <c r="K186" s="54"/>
+      <c r="L186" s="54"/>
+      <c r="M186" s="54"/>
+      <c r="N186" s="54"/>
+      <c r="Q186" s="36"/>
+      <c r="R186" s="36"/>
+      <c r="S186" s="36"/>
+      <c r="T186" s="36"/>
+      <c r="U186" s="36"/>
+      <c r="V186" s="36"/>
+      <c r="W186" s="36"/>
+    </row>
+    <row r="187" spans="3:23" ht="15" customHeight="1">
+      <c r="C187" s="36"/>
+      <c r="D187" s="36"/>
+      <c r="E187" s="36"/>
+      <c r="F187" s="36"/>
+      <c r="G187" s="36"/>
+      <c r="Q187" s="36"/>
+      <c r="R187" s="36"/>
+      <c r="S187" s="36"/>
+      <c r="T187" s="36"/>
+      <c r="U187" s="36"/>
+      <c r="V187" s="36"/>
+      <c r="W187" s="36"/>
+    </row>
+    <row r="188" spans="3:23" ht="15" customHeight="1">
+      <c r="C188" s="36"/>
+      <c r="D188" s="36"/>
+      <c r="E188" s="36"/>
+      <c r="F188" s="36"/>
+      <c r="G188" s="36"/>
+      <c r="Q188" s="36"/>
+      <c r="R188" s="36"/>
+      <c r="S188" s="36"/>
+      <c r="T188" s="36"/>
+      <c r="U188" s="36"/>
+      <c r="V188" s="36"/>
+      <c r="W188" s="36"/>
+    </row>
+    <row r="189" spans="3:23" ht="15" customHeight="1">
+      <c r="C189" s="36"/>
+      <c r="D189" s="36"/>
+      <c r="E189" s="36"/>
+      <c r="F189" s="36"/>
+      <c r="G189" s="36"/>
+      <c r="Q189" s="36"/>
+      <c r="R189" s="36"/>
+      <c r="S189" s="36"/>
+      <c r="T189" s="36"/>
+      <c r="U189" s="36"/>
+      <c r="V189" s="36"/>
+      <c r="W189" s="36"/>
+    </row>
+    <row r="190" spans="3:23" ht="15" customHeight="1">
+      <c r="C190" s="36"/>
+      <c r="D190" s="36"/>
+      <c r="E190" s="36"/>
+      <c r="F190" s="36"/>
+      <c r="G190" s="36"/>
+      <c r="Q190" s="36"/>
+      <c r="R190" s="36"/>
+      <c r="S190" s="36"/>
+      <c r="T190" s="36"/>
+      <c r="U190" s="36"/>
+      <c r="V190" s="36"/>
+      <c r="W190" s="36"/>
+    </row>
+    <row r="191" spans="3:23" ht="15" customHeight="1">
+      <c r="C191" s="36"/>
+      <c r="D191" s="36"/>
+      <c r="E191" s="35"/>
+      <c r="F191" s="36"/>
+      <c r="G191" s="36"/>
+      <c r="I191" s="56" t="s">
+        <v>167</v>
+      </c>
+      <c r="J191" s="52"/>
+      <c r="K191" s="52"/>
+      <c r="L191" s="52"/>
+      <c r="M191" s="52"/>
+      <c r="N191" s="52"/>
+      <c r="Q191" s="36"/>
+      <c r="R191" s="35"/>
+      <c r="S191" s="36"/>
+      <c r="T191" s="36"/>
+      <c r="U191" s="36"/>
+      <c r="V191" s="36"/>
+      <c r="W191" s="36"/>
+    </row>
+    <row r="192" spans="3:23" ht="15" customHeight="1">
+      <c r="C192" s="36"/>
+      <c r="D192" s="36"/>
+      <c r="E192" s="36"/>
+      <c r="F192" s="36"/>
+      <c r="G192" s="36"/>
+      <c r="I192" s="52"/>
+      <c r="J192" s="52"/>
+      <c r="K192" s="52"/>
+      <c r="L192" s="52"/>
+      <c r="M192" s="52"/>
+      <c r="N192" s="52"/>
+      <c r="Q192" s="36"/>
+      <c r="R192" s="36"/>
+      <c r="S192" s="36"/>
+      <c r="T192" s="36"/>
+      <c r="U192" s="36"/>
+      <c r="V192" s="36"/>
+      <c r="W192" s="36"/>
+    </row>
+    <row r="193" spans="3:23" ht="15" customHeight="1">
+      <c r="C193" s="36"/>
+      <c r="D193" s="36"/>
+      <c r="E193" s="36"/>
+      <c r="F193" s="36"/>
+      <c r="G193" s="36"/>
+      <c r="I193" s="52"/>
+      <c r="J193" s="52"/>
+      <c r="K193" s="52"/>
+      <c r="L193" s="52"/>
+      <c r="M193" s="52"/>
+      <c r="N193" s="52"/>
+      <c r="Q193" s="36"/>
+      <c r="R193" s="36"/>
+      <c r="S193" s="36"/>
+      <c r="T193" s="36"/>
+      <c r="U193" s="36"/>
+      <c r="V193" s="36"/>
+      <c r="W193" s="36"/>
+    </row>
+    <row r="194" spans="3:23">
+      <c r="C194" s="36"/>
+      <c r="D194" s="36"/>
+      <c r="E194" s="36"/>
+      <c r="F194" s="36"/>
+      <c r="G194" s="36"/>
+      <c r="I194" s="52"/>
+      <c r="J194" s="52"/>
+      <c r="K194" s="52"/>
+      <c r="L194" s="52"/>
+      <c r="M194" s="52"/>
+      <c r="N194" s="52"/>
+      <c r="Q194" s="36"/>
+      <c r="R194" s="36"/>
+      <c r="S194" s="36"/>
+      <c r="T194" s="36"/>
+      <c r="U194" s="36"/>
+      <c r="V194" s="36"/>
+      <c r="W194" s="36"/>
+    </row>
+    <row r="195" spans="3:23">
+      <c r="C195" s="36"/>
+      <c r="D195" s="36"/>
+      <c r="E195" s="36"/>
+      <c r="F195" s="36"/>
+      <c r="G195" s="36"/>
+      <c r="Q195" s="36"/>
+      <c r="R195" s="36"/>
+      <c r="S195" s="36"/>
+      <c r="T195" s="36"/>
+      <c r="U195" s="36"/>
+      <c r="V195" s="36"/>
+      <c r="W195" s="36"/>
+    </row>
+    <row r="196" spans="3:23">
+      <c r="C196" s="36"/>
+      <c r="D196" s="36"/>
+      <c r="E196" s="36"/>
+      <c r="F196" s="36"/>
+      <c r="G196" s="36"/>
+      <c r="Q196" s="36"/>
+      <c r="R196" s="36"/>
+      <c r="S196" s="36"/>
+      <c r="T196" s="36"/>
+      <c r="U196" s="36"/>
+      <c r="V196" s="36"/>
+      <c r="W196" s="36"/>
+    </row>
+    <row r="197" spans="3:23">
+      <c r="C197" s="36"/>
+      <c r="D197" s="36"/>
+      <c r="E197" s="36"/>
+      <c r="F197" s="36"/>
+      <c r="G197" s="36"/>
+      <c r="Q197" s="36"/>
+      <c r="R197" s="36"/>
+      <c r="S197" s="36"/>
+      <c r="T197" s="36"/>
+      <c r="U197" s="36"/>
+      <c r="V197" s="36"/>
+      <c r="W197" s="36"/>
+    </row>
+    <row r="198" spans="3:23">
+      <c r="C198" s="36"/>
+      <c r="D198" s="36"/>
+      <c r="E198" s="36"/>
+      <c r="F198" s="36"/>
+      <c r="G198" s="36"/>
+      <c r="Q198" s="36"/>
+      <c r="R198" s="36"/>
+      <c r="S198" s="36"/>
+      <c r="T198" s="36"/>
+      <c r="U198" s="36"/>
+      <c r="V198" s="36"/>
+      <c r="W198" s="36"/>
+    </row>
+    <row r="199" spans="3:23">
+      <c r="Q199" s="36"/>
+      <c r="R199" s="36"/>
+      <c r="S199" s="36"/>
+      <c r="T199" s="36"/>
+      <c r="U199" s="36"/>
+      <c r="V199" s="36"/>
+      <c r="W199" s="36"/>
+    </row>
+    <row r="200" spans="3:23">
+      <c r="Q200" s="36"/>
+      <c r="R200" s="36"/>
+      <c r="S200" s="36"/>
+      <c r="T200" s="36"/>
+      <c r="U200" s="36"/>
+      <c r="V200" s="36"/>
+      <c r="W200" s="36"/>
     </row>
     <row r="212" ht="13.5" customHeight="1"/>
   </sheetData>
-  <mergeCells count="77">
-    <mergeCell ref="A80:D81"/>
-    <mergeCell ref="AC76:AE77"/>
-    <mergeCell ref="AA79:AA80"/>
-    <mergeCell ref="AC86:AE87"/>
-    <mergeCell ref="N79:N80"/>
-    <mergeCell ref="M42:O43"/>
-    <mergeCell ref="CK16:CL17"/>
-    <mergeCell ref="CM19:CS20"/>
-    <mergeCell ref="CL31:CQ32"/>
-    <mergeCell ref="CL38:CU39"/>
-    <mergeCell ref="BV38:BX39"/>
-    <mergeCell ref="BT16:BU17"/>
-    <mergeCell ref="BV19:CB20"/>
-    <mergeCell ref="AY16:AZ17"/>
-    <mergeCell ref="AJ16:AK17"/>
-    <mergeCell ref="CL46:CQ47"/>
-    <mergeCell ref="BV95:CB96"/>
-    <mergeCell ref="BS104:BV107"/>
-    <mergeCell ref="BU35:BZ36"/>
-    <mergeCell ref="BU57:BZ58"/>
-    <mergeCell ref="BU76:CA79"/>
-    <mergeCell ref="BW46:BZ47"/>
-    <mergeCell ref="BU41:BZ44"/>
-    <mergeCell ref="BV53:BX54"/>
-    <mergeCell ref="BU50:CA51"/>
-    <mergeCell ref="BW73:BZ74"/>
-    <mergeCell ref="AQ71:AQ72"/>
-    <mergeCell ref="AS68:AU69"/>
-    <mergeCell ref="AS78:AU79"/>
-    <mergeCell ref="AH105:AM108"/>
-    <mergeCell ref="AI28:AL31"/>
-    <mergeCell ref="AI38:AL40"/>
-    <mergeCell ref="AH41:AM44"/>
-    <mergeCell ref="AH49:AM52"/>
-    <mergeCell ref="AH56:AM59"/>
-    <mergeCell ref="AH34:AM37"/>
-    <mergeCell ref="AH63:AM66"/>
-    <mergeCell ref="AH71:AM74"/>
-    <mergeCell ref="AH78:AM81"/>
-    <mergeCell ref="AH90:AM93"/>
-    <mergeCell ref="AH97:AM100"/>
-    <mergeCell ref="AZ72:BE73"/>
-    <mergeCell ref="BA19:BG20"/>
-    <mergeCell ref="AZ23:BE24"/>
-    <mergeCell ref="AZ31:BE32"/>
-    <mergeCell ref="AZ38:BI39"/>
-    <mergeCell ref="AL19:AU20"/>
-    <mergeCell ref="AZ46:BE47"/>
-    <mergeCell ref="AZ53:BE54"/>
-    <mergeCell ref="BA59:BH60"/>
-    <mergeCell ref="AZ65:BE66"/>
-    <mergeCell ref="T16:U17"/>
-    <mergeCell ref="U31:Z32"/>
-    <mergeCell ref="U23:Z24"/>
-    <mergeCell ref="V19:AB20"/>
-    <mergeCell ref="Z42:AB43"/>
-    <mergeCell ref="AD105:AD106"/>
-    <mergeCell ref="R52:W55"/>
-    <mergeCell ref="R45:W48"/>
-    <mergeCell ref="S58:V61"/>
-    <mergeCell ref="R64:W67"/>
+  <mergeCells count="89">
+    <mergeCell ref="I191:N194"/>
+    <mergeCell ref="K128:L129"/>
+    <mergeCell ref="L143:Q144"/>
+    <mergeCell ref="D154:F155"/>
+    <mergeCell ref="Q154:S155"/>
+    <mergeCell ref="I157:N160"/>
+    <mergeCell ref="I164:N167"/>
+    <mergeCell ref="J170:M173"/>
+    <mergeCell ref="I176:N179"/>
+    <mergeCell ref="I183:N186"/>
+    <mergeCell ref="L135:N136"/>
+    <mergeCell ref="B124:E125"/>
     <mergeCell ref="CA125:CA126"/>
     <mergeCell ref="AZ80:BC81"/>
     <mergeCell ref="BD79:BD80"/>
@@ -15018,6 +17210,67 @@
     <mergeCell ref="E59:L60"/>
     <mergeCell ref="R79:W82"/>
     <mergeCell ref="R71:W74"/>
+    <mergeCell ref="AD105:AD106"/>
+    <mergeCell ref="R52:W55"/>
+    <mergeCell ref="R45:W48"/>
+    <mergeCell ref="S58:V61"/>
+    <mergeCell ref="R64:W67"/>
+    <mergeCell ref="AZ72:BE73"/>
+    <mergeCell ref="BA19:BG20"/>
+    <mergeCell ref="AZ23:BE24"/>
+    <mergeCell ref="AZ31:BE32"/>
+    <mergeCell ref="AZ38:BI39"/>
+    <mergeCell ref="AZ46:BE47"/>
+    <mergeCell ref="AZ53:BE54"/>
+    <mergeCell ref="BA59:BH60"/>
+    <mergeCell ref="AZ65:BE66"/>
+    <mergeCell ref="AQ71:AQ72"/>
+    <mergeCell ref="AS68:AU69"/>
+    <mergeCell ref="AS78:AU79"/>
+    <mergeCell ref="AH105:AM108"/>
+    <mergeCell ref="AI28:AL31"/>
+    <mergeCell ref="AI38:AL40"/>
+    <mergeCell ref="AH41:AM44"/>
+    <mergeCell ref="AH49:AM52"/>
+    <mergeCell ref="AH56:AM59"/>
+    <mergeCell ref="AH34:AM37"/>
+    <mergeCell ref="AH63:AM66"/>
+    <mergeCell ref="AH71:AM74"/>
+    <mergeCell ref="AH78:AM81"/>
+    <mergeCell ref="AH90:AM93"/>
+    <mergeCell ref="AH97:AM100"/>
+    <mergeCell ref="CL46:CQ47"/>
+    <mergeCell ref="BV95:CB96"/>
+    <mergeCell ref="BS104:BV107"/>
+    <mergeCell ref="BU35:BZ36"/>
+    <mergeCell ref="BU57:BZ58"/>
+    <mergeCell ref="BU76:CA79"/>
+    <mergeCell ref="BW46:BZ47"/>
+    <mergeCell ref="BU41:BZ44"/>
+    <mergeCell ref="BV53:BX54"/>
+    <mergeCell ref="BU50:CA51"/>
+    <mergeCell ref="BW73:BZ74"/>
+    <mergeCell ref="M42:O43"/>
+    <mergeCell ref="CK16:CL17"/>
+    <mergeCell ref="CM19:CS20"/>
+    <mergeCell ref="CL31:CQ32"/>
+    <mergeCell ref="CL38:CU39"/>
+    <mergeCell ref="BV38:BX39"/>
+    <mergeCell ref="BT16:BU17"/>
+    <mergeCell ref="BV19:CB20"/>
+    <mergeCell ref="AY16:AZ17"/>
+    <mergeCell ref="AJ16:AK17"/>
+    <mergeCell ref="AL19:AU20"/>
+    <mergeCell ref="T16:U17"/>
+    <mergeCell ref="U31:Z32"/>
+    <mergeCell ref="U23:Z24"/>
+    <mergeCell ref="V19:AB20"/>
+    <mergeCell ref="Z42:AB43"/>
+    <mergeCell ref="A80:D81"/>
+    <mergeCell ref="AC76:AE77"/>
+    <mergeCell ref="AA79:AA80"/>
+    <mergeCell ref="AC86:AE87"/>
+    <mergeCell ref="N79:N80"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
